--- a/src/inventory.xlsx
+++ b/src/inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Erik\Dropbox\erik-siegel\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Erik\Dropbox\component-inventory\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37E20B8-E739-4F0C-B688-B4357EC501DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A10781C-B0F6-4A0C-BE7B-EF18E48FC407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27700" yWindow="-4820" windowWidth="29370" windowHeight="20360" xr2:uid="{7B4DE2BE-437B-4368-A10E-354E74019CAE}"/>
+    <workbookView xWindow="27600" yWindow="-5780" windowWidth="28770" windowHeight="21600" xr2:uid="{7B4DE2BE-437B-4368-A10E-354E74019CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="227">
   <si>
     <t>What (ID)</t>
   </si>
@@ -540,6 +540,258 @@
   </si>
   <si>
     <t>NPN RF TRansistor</t>
+  </si>
+  <si>
+    <t>BRY39</t>
+  </si>
+  <si>
+    <t>Programmable unijunction</t>
+  </si>
+  <si>
+    <t>Datasheet has example applications</t>
+  </si>
+  <si>
+    <t>HEF4035B</t>
+  </si>
+  <si>
+    <t>4-bit universal shift register</t>
+  </si>
+  <si>
+    <t>HEF4053B</t>
+  </si>
+  <si>
+    <t>Triple single-pole double-throw analog switch</t>
+  </si>
+  <si>
+    <t>C636</t>
+  </si>
+  <si>
+    <t>PNP mediuym power transistor</t>
+  </si>
+  <si>
+    <t>LM340KC</t>
+  </si>
+  <si>
+    <t>Voltage regulator</t>
+  </si>
+  <si>
+    <t>BFY52</t>
+  </si>
+  <si>
+    <t>NPN transistor</t>
+  </si>
+  <si>
+    <t>NPN medium power transistor</t>
+  </si>
+  <si>
+    <t>HEF4019B</t>
+  </si>
+  <si>
+    <t>Quadruple 2-input multiplexer</t>
+  </si>
+  <si>
+    <t>HEF4051B</t>
+  </si>
+  <si>
+    <t>8-channel analog multiplexer/demultiplexer</t>
+  </si>
+  <si>
+    <t>BC548</t>
+  </si>
+  <si>
+    <t>HEF4050</t>
+  </si>
+  <si>
+    <t>Hex non-inverting buffers</t>
+  </si>
+  <si>
+    <t>BD140</t>
+  </si>
+  <si>
+    <t>PNP medium power transistor</t>
+  </si>
+  <si>
+    <t>TO225</t>
+  </si>
+  <si>
+    <t>CNX48</t>
+  </si>
+  <si>
+    <t>Darlington optocoupler</t>
+  </si>
+  <si>
+    <t>OPTOCPL</t>
+  </si>
+  <si>
+    <t>HEF45415B</t>
+  </si>
+  <si>
+    <t>DIP24</t>
+  </si>
+  <si>
+    <t>1-of-16 decoder/demultiplexer with input latches</t>
+  </si>
+  <si>
+    <t>HEF4021B</t>
+  </si>
+  <si>
+    <t>DIP 16</t>
+  </si>
+  <si>
+    <t>8-bit static shift register</t>
+  </si>
+  <si>
+    <t>BUX86</t>
+  </si>
+  <si>
+    <t>BUX86 NPN Si Epibase Power Switch</t>
+  </si>
+  <si>
+    <t>LM741</t>
+  </si>
+  <si>
+    <t>HEF40194B</t>
+  </si>
+  <si>
+    <t>4-bit bidirectional universal shift register</t>
+  </si>
+  <si>
+    <t>LM393</t>
+  </si>
+  <si>
+    <t>Dual Comparators</t>
+  </si>
+  <si>
+    <t>HEF4041B</t>
+  </si>
+  <si>
+    <t>Quadruple true/complement buffer</t>
+  </si>
+  <si>
+    <t>BD204</t>
+  </si>
+  <si>
+    <t>PNP power transistor</t>
+  </si>
+  <si>
+    <t>HEF4518B</t>
+  </si>
+  <si>
+    <t>Dual BCD counter</t>
+  </si>
+  <si>
+    <t>BU806</t>
+  </si>
+  <si>
+    <t>Darlington transistor</t>
+  </si>
+  <si>
+    <t>BSX20</t>
+  </si>
+  <si>
+    <t>Low power bipolar NPN transistor</t>
+  </si>
+  <si>
+    <t>LM723</t>
+  </si>
+  <si>
+    <t>High precision voltage regulator</t>
+  </si>
+  <si>
+    <t>BFQ13</t>
+  </si>
+  <si>
+    <t>TDA4860</t>
+  </si>
+  <si>
+    <t>Vertical deflection power amplifier for monitors</t>
+  </si>
+  <si>
+    <t>HEF4543B</t>
+  </si>
+  <si>
+    <t>BCD to 7-segment latch/decoder/driver</t>
+  </si>
+  <si>
+    <t>4-bit binary full adder</t>
+  </si>
+  <si>
+    <t>HEF4008B</t>
+  </si>
+  <si>
+    <t>SN74LS245N</t>
+  </si>
+  <si>
+    <t>Octal Bus Transceivers With 3-State Outputs</t>
+  </si>
+  <si>
+    <t>ICL232</t>
+  </si>
+  <si>
+    <t>Dual RS-232 Transmitter/Receiver</t>
+  </si>
+  <si>
+    <t>BFY55</t>
+  </si>
+  <si>
+    <t>NPN high frequency transistor</t>
+  </si>
+  <si>
+    <t>BC556B</t>
+  </si>
+  <si>
+    <t>PNP transistor</t>
+  </si>
+  <si>
+    <t>MC7810</t>
+  </si>
+  <si>
+    <t>3-Terminal 1A Positive Voltage Regulator</t>
+  </si>
+  <si>
+    <t>LM7915</t>
+  </si>
+  <si>
+    <t>3-Terminal Negative Regulator</t>
+  </si>
+  <si>
+    <t>AD847</t>
+  </si>
+  <si>
+    <t>CD74HC4066</t>
+  </si>
+  <si>
+    <t>High-Speed CMOS Logic Quad Bilateral Switch</t>
+  </si>
+  <si>
+    <t>74HC4051</t>
+  </si>
+  <si>
+    <t>MC14069</t>
+  </si>
+  <si>
+    <t>Hex inverter</t>
+  </si>
+  <si>
+    <t>Compatible with CD4069</t>
+  </si>
+  <si>
+    <t>HEF4046B</t>
+  </si>
+  <si>
+    <t>Phase-locked loop</t>
+  </si>
+  <si>
+    <t>ATMEGA103</t>
+  </si>
+  <si>
+    <t>8-bit microcontroller</t>
+  </si>
+  <si>
+    <t>MICRO</t>
+  </si>
+  <si>
+    <t>Niet bruikbaar wegens micro aansluitingen</t>
   </si>
 </sst>
 </file>
@@ -736,10 +988,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A3:K59" totalsRowShown="0">
-  <autoFilter ref="A3:K59" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K54">
-    <sortCondition ref="B3:B54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A3:K99" totalsRowShown="0">
+  <autoFilter ref="A3:K99" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K95">
+    <sortCondition ref="B3:B95"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{C4F97701-1496-46B7-9BA9-0E2C3EE5AEE8}" name="Date entered" dataDxfId="10"/>
@@ -1075,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E1E352-0B9B-45A5-97A3-5920624A3ECD}">
-  <dimension ref="A3:K59"/>
+  <dimension ref="A3:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1265,45 +1517,46 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>45584</v>
+        <v>45607</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10" s="10">
-        <v>7</v>
-      </c>
-      <c r="G10" s="6">
-        <v>2.5</v>
+        <f>14+13</f>
+        <v>27</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>45586</v>
+        <v>45584</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>30</v>
+      <c r="F11" s="10">
+        <v>7</v>
       </c>
       <c r="G11" s="6">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1311,36 +1564,36 @@
         <v>45586</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>33</v>
+      <c r="F12" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="G12" s="6">
-        <v>17</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>45588</v>
+        <v>45602</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>38</v>
@@ -1349,188 +1602,185 @@
         <v>3</v>
       </c>
       <c r="G13" s="6">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="10">
-        <v>18</v>
+      <c r="F14" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G14" s="6">
-        <v>2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>45586</v>
+        <v>45590</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G15" s="6">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>45588</v>
+        <v>45586</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="10">
-        <v>7</v>
+      <c r="F16" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G16" s="6">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>45588</v>
+        <v>45602</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G17" s="6">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" t="s">
-        <v>116</v>
+        <v>185</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F18" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G18" s="6">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>45584</v>
+        <v>45588</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F19" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G19" s="6">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
+        <v>195</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F20" s="10">
-        <v>7</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>45586</v>
+        <v>45602</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="10">
         <v>20</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="10">
-        <v>7</v>
       </c>
       <c r="G21" s="6">
         <v>0.8</v>
@@ -1538,97 +1788,97 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F22" s="10">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G22" s="6">
-        <v>2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>45588</v>
+        <v>45590</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>92</v>
+        <v>140</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="10">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G23" s="6">
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>45588</v>
+        <v>45602</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>104</v>
+        <v>143</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F24" s="10">
-        <v>6</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0.2</v>
+        <v>25</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" t="s">
-        <v>112</v>
+        <v>191</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F25" s="10">
+        <v>15</v>
+      </c>
+      <c r="G25" s="6">
         <v>1</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1636,22 +1886,22 @@
         <v>45588</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" t="s">
-        <v>122</v>
+        <v>99</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="10">
         <v>18</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="10">
-        <v>8</v>
-      </c>
       <c r="G26" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1659,200 +1909,194 @@
         <v>45586</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F27" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G27" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>64</v>
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F28" s="10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G28" s="6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F29" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G29" s="6">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F30" s="10">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G30" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="H30" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>45588</v>
+        <v>45602</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" t="s">
-        <v>118</v>
+        <v>150</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F31" s="10">
-        <v>10</v>
-      </c>
-      <c r="G31" s="6">
+        <v>17</v>
+      </c>
+      <c r="H31" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F32" s="10">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G32" s="6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" t="s">
-        <v>107</v>
+        <v>167</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="F33" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G33" s="6">
-        <v>1.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F34" s="10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G34" s="6">
-        <v>2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>45586</v>
+        <v>45590</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>68</v>
+        <v>133</v>
+      </c>
+      <c r="C35" t="s">
+        <v>135</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>28</v>
@@ -1861,18 +2105,18 @@
         <v>8</v>
       </c>
       <c r="G35" s="6">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>20</v>
@@ -1881,21 +2125,21 @@
         <v>28</v>
       </c>
       <c r="F36" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G36" s="6">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>18</v>
@@ -1904,10 +2148,10 @@
         <v>28</v>
       </c>
       <c r="F37" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" s="6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -1915,45 +2159,45 @@
         <v>45584</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F38" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G38" s="6">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>45584</v>
+        <v>45586</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>26</v>
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F39" s="10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G39" s="6">
-        <v>5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -1961,13 +2205,13 @@
         <v>45586</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>28</v>
@@ -1976,7 +2220,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="6">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -1984,13 +2228,13 @@
         <v>45586</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" t="s">
-        <v>35</v>
+        <v>69</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>28</v>
@@ -1999,7 +2243,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2007,85 +2251,91 @@
         <v>45588</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F42" s="10">
-        <v>15</v>
-      </c>
-      <c r="H42" s="8">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>104</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F43" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G43" s="6">
-        <v>20</v>
+        <v>0.2</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>47</v>
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>112</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F44" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G44" s="6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>44</v>
+        <v>121</v>
+      </c>
+      <c r="C45" t="s">
+        <v>122</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F45" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G45" s="6">
         <v>1</v>
@@ -2093,327 +2343,1223 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" t="s">
-        <v>82</v>
+        <v>179</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F46" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G46" s="6">
-        <v>0.35</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>45584</v>
+        <v>45602</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>23</v>
+        <v>157</v>
+      </c>
+      <c r="C47" t="s">
+        <v>158</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F47" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G47" s="6">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>24</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" t="s">
-        <v>84</v>
+        <v>173</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F48" s="10">
+        <v>8</v>
+      </c>
+      <c r="G48" s="6">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="10">
         <v>6</v>
       </c>
-      <c r="G48" s="6">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F49" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G49" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>45586</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="F50" s="10">
+        <v>10</v>
       </c>
       <c r="G50" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>45588</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F51" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G51" s="6">
-        <v>15</v>
-      </c>
-      <c r="I51" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45588</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="10">
+        <v>6</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H52" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="10">
+        <v>10</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="10">
+        <v>10</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>45602</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="10">
+        <v>10</v>
+      </c>
+      <c r="H55" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="10">
+        <v>6</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="10">
+        <v>9</v>
+      </c>
+      <c r="G57" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="10">
+        <v>8</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="10">
+        <v>9</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" s="10">
+        <v>7</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="10">
+        <v>10</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>45602</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" s="10">
+        <v>4</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>45602</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="10">
+        <v>10</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>45602</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="10">
+        <v>8</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>45590</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="10">
+        <v>5</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>45590</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="10">
+        <v>8</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>45584</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="10">
+        <v>7</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>45584</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="10">
+        <v>10</v>
+      </c>
+      <c r="G68" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="10">
+        <v>9</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" s="10">
+        <v>10</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="10">
+        <v>7</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="10">
+        <v>5</v>
+      </c>
+      <c r="G72" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="10">
+        <v>10</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="10">
+        <v>4</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" s="10">
+        <v>15</v>
+      </c>
+      <c r="H75" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F76" s="10">
+        <v>3</v>
+      </c>
+      <c r="G76" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" s="10">
+        <v>4</v>
+      </c>
+      <c r="G77" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" s="10">
+        <v>5</v>
+      </c>
+      <c r="G78" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F79" s="10">
+        <v>1</v>
+      </c>
+      <c r="G79" s="6">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <v>45602</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>45584</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="10">
+        <v>3</v>
+      </c>
+      <c r="G81" s="6">
+        <v>1</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C82" t="s">
+        <v>182</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="10">
+        <v>1</v>
+      </c>
+      <c r="G82" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="10">
+        <v>7</v>
+      </c>
+      <c r="H83" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F84" s="10">
+        <v>3</v>
+      </c>
+      <c r="G84" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" s="10">
+        <v>6</v>
+      </c>
+      <c r="G85" s="6">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C86" t="s">
+        <v>213</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="10">
+        <v>16</v>
+      </c>
+      <c r="G86" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" t="s">
+        <v>211</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" s="10">
+        <v>7</v>
+      </c>
+      <c r="G87" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G89" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="10">
+        <v>10</v>
+      </c>
+      <c r="G90" s="6">
+        <v>15</v>
+      </c>
+      <c r="I90" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C91" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F91" s="10">
         <v>2</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G91" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C92" t="s">
+        <v>203</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F92" s="10">
+        <v>9</v>
+      </c>
+      <c r="G92" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
         <v>45584</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F93" s="10">
         <v>4</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G93" s="6">
         <v>3</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H93" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94" t="s">
+        <v>197</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" s="10">
+        <v>3</v>
+      </c>
+      <c r="G94" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
         <v>45586</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F95" s="10">
         <v>1</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G95" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>45590</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" s="10">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" s="10">
+        <v>10</v>
+      </c>
+      <c r="G96" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" s="10">
+        <v>2</v>
+      </c>
+      <c r="G97" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C98" t="s">
+        <v>222</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F98" s="10">
+        <v>2</v>
+      </c>
+      <c r="G98" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F99" s="10">
         <v>5</v>
       </c>
-      <c r="G55" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>45590</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" t="s">
-        <v>132</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="10">
-        <v>8</v>
-      </c>
-      <c r="G56" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>45590</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" s="10">
-        <v>8</v>
-      </c>
-      <c r="G57" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>45590</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" s="10">
-        <v>5</v>
-      </c>
-      <c r="G58" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>45590</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G59" s="6">
-        <v>6</v>
+      <c r="K99" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2424,9 +3570,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/inventory.xlsx
+++ b/src/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Erik\Dropbox\component-inventory\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A10781C-B0F6-4A0C-BE7B-EF18E48FC407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52524935-E1E6-417F-9ACB-B83F225240A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27600" yWindow="-5780" windowWidth="28770" windowHeight="21600" xr2:uid="{7B4DE2BE-437B-4368-A10E-354E74019CAE}"/>
+    <workbookView xWindow="27600" yWindow="-4340" windowWidth="28770" windowHeight="17630" xr2:uid="{7B4DE2BE-437B-4368-A10E-354E74019CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="260">
   <si>
     <t>What (ID)</t>
   </si>
@@ -792,6 +792,105 @@
   </si>
   <si>
     <t>Niet bruikbaar wegens micro aansluitingen</t>
+  </si>
+  <si>
+    <t>DS1220Y</t>
+  </si>
+  <si>
+    <t>16K nonvolatile SRAM</t>
+  </si>
+  <si>
+    <t>TIP112</t>
+  </si>
+  <si>
+    <t>Darlington transistors</t>
+  </si>
+  <si>
+    <t>MC33204P</t>
+  </si>
+  <si>
+    <t>Quad low-voltage opamp</t>
+  </si>
+  <si>
+    <t>F100C</t>
+  </si>
+  <si>
+    <t>Thermal switch 80C</t>
+  </si>
+  <si>
+    <t>KPE827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audio Transducer Piezo 50Vp-p 9mA 100dB </t>
+  </si>
+  <si>
+    <t>BD139</t>
+  </si>
+  <si>
+    <t>BC516</t>
+  </si>
+  <si>
+    <t>PNP Darlington transistor</t>
+  </si>
+  <si>
+    <t>BC517</t>
+  </si>
+  <si>
+    <t>NPN Darlington trannsistor</t>
+  </si>
+  <si>
+    <t>BC337</t>
+  </si>
+  <si>
+    <t>DM74LS47</t>
+  </si>
+  <si>
+    <t>BCD to 7-segment decoder/driver</t>
+  </si>
+  <si>
+    <t>MC1458N</t>
+  </si>
+  <si>
+    <t>General purpose operational amplifier</t>
+  </si>
+  <si>
+    <t>74HC74N</t>
+  </si>
+  <si>
+    <t>Dual D-type flip-flop with set and reset</t>
+  </si>
+  <si>
+    <t>+++</t>
+  </si>
+  <si>
+    <t>ULN2803A</t>
+  </si>
+  <si>
+    <t>Eight darlington arrays; driver</t>
+  </si>
+  <si>
+    <t>BD436</t>
+  </si>
+  <si>
+    <t>PNP Epitaxial Silicon Transistor</t>
+  </si>
+  <si>
+    <t>TXC4000</t>
+  </si>
+  <si>
+    <t>Oscillator 4.000Mhz</t>
+  </si>
+  <si>
+    <t>74HC4316</t>
+  </si>
+  <si>
+    <t>Quad bilateral switch</t>
+  </si>
+  <si>
+    <t>LM2907</t>
+  </si>
+  <si>
+    <t>Frequency to Voltage Converter</t>
   </si>
 </sst>
 </file>
@@ -988,10 +1087,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A3:K99" totalsRowShown="0">
-  <autoFilter ref="A3:K99" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K95">
-    <sortCondition ref="B3:B95"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A3:K116" totalsRowShown="0">
+  <autoFilter ref="A3:K116" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K116">
+    <sortCondition ref="B3:B116"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{C4F97701-1496-46B7-9BA9-0E2C3EE5AEE8}" name="Date entered" dataDxfId="10"/>
@@ -1327,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E1E352-0B9B-45A5-97A3-5920624A3ECD}">
-  <dimension ref="A3:K99"/>
+  <dimension ref="A3:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1446,7 +1545,7 @@
         <v>38</v>
       </c>
       <c r="F6" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="6">
         <v>3</v>
@@ -1500,109 +1599,103 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="10">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
+        <v>45303</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>45607</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F13" s="10">
         <f>14+13</f>
         <v>27</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H13" s="8">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>45584</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="10">
-        <v>7</v>
-      </c>
-      <c r="G11" s="6">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>45602</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="10">
-        <v>3</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1610,217 +1703,214 @@
         <v>45607</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.05</v>
+        <v>225</v>
+      </c>
+      <c r="F14" s="10">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>45590</v>
+        <v>45584</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G15" s="6">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>45586</v>
+        <v>45617</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>33</v>
+      <c r="F16" s="10">
+        <v>11</v>
       </c>
       <c r="G16" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>45602</v>
+        <v>45608</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>165</v>
+        <v>239</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G17" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F18" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>45588</v>
+        <v>45586</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>45602</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="10">
         <v>3</v>
       </c>
-      <c r="G19" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="G20" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>45607</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>45590</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="10">
+        <v>5</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>45602</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="10">
-        <v>20</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="10">
-        <v>19</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>45590</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>38</v>
@@ -1829,67 +1919,64 @@
         <v>33</v>
       </c>
       <c r="G23" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="10">
+        <v>4</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>45602</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="10">
-        <v>25</v>
-      </c>
-      <c r="H24" s="8">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="B25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="10">
+        <v>14</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
         <v>45607</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="10">
-        <v>15</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>45588</v>
-      </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>73</v>
@@ -1898,375 +1985,375 @@
         <v>38</v>
       </c>
       <c r="F26" s="10">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G26" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F27" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>45588</v>
+        <v>45608</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>94</v>
+        <v>252</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="10">
-        <v>7</v>
+      <c r="F28" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G28" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45607</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F29" s="10">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
+        <v>45602</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="10">
+        <v>20</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
         <v>45607</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="10">
-        <v>23</v>
-      </c>
-      <c r="G30" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>45602</v>
-      </c>
       <c r="B31" s="2" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F31" s="10">
-        <v>17</v>
-      </c>
-      <c r="H31" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>45607</v>
+        <v>45590</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C32" t="s">
-        <v>216</v>
+        <v>140</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="10">
-        <v>24</v>
+        <v>141</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G32" s="6">
-        <v>0.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>45607</v>
+        <v>45602</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="F33" s="10">
-        <v>8</v>
-      </c>
-      <c r="G33" s="6">
+        <v>25</v>
+      </c>
+      <c r="H33" s="8">
         <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G34" s="6">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>45590</v>
+        <v>45588</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" t="s">
-        <v>135</v>
+        <v>99</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F35" s="10">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G35" s="6">
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>45588</v>
+        <v>45586</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" t="s">
-        <v>116</v>
+        <v>36</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F36" s="10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G36" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>45607</v>
+        <v>45588</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>200</v>
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F37" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G37" s="6">
-        <v>0.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>45584</v>
+        <v>45607</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F38" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G38" s="6">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" t="s">
-        <v>54</v>
+        <v>176</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F39" s="10">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G39" s="6">
-        <v>0.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>45586</v>
+        <v>45602</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F40" s="10">
-        <v>9</v>
-      </c>
-      <c r="G40" s="6">
-        <v>0.8</v>
+        <v>17</v>
+      </c>
+      <c r="H40" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>70</v>
+        <v>215</v>
+      </c>
+      <c r="C41" t="s">
+        <v>216</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F41" s="10">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G41" s="6">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" t="s">
-        <v>92</v>
+        <v>167</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="F42" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G42" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2274,151 +2361,136 @@
         <v>45588</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" t="s">
-        <v>104</v>
+        <v>87</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F43" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G43" s="6">
         <v>0.2</v>
       </c>
-      <c r="K43" s="2" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>45588</v>
+        <v>45608</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" t="s">
-        <v>112</v>
+        <v>243</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F44" s="10">
+        <v>14</v>
+      </c>
+      <c r="G44" s="6">
         <v>1</v>
-      </c>
-      <c r="G44" s="6">
-        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>45588</v>
+        <v>45608</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" t="s">
-        <v>122</v>
+        <v>227</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="F45" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G45" s="6">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="F46" s="10">
-        <v>7</v>
-      </c>
-      <c r="G46" s="6">
-        <v>1.5</v>
+        <v>2</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>45602</v>
+        <v>45590</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F47" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G47" s="6">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>45607</v>
+        <v>45588</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>175</v>
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F48" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G48" s="6">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>18</v>
@@ -2427,44 +2499,44 @@
         <v>28</v>
       </c>
       <c r="F49" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G49" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>45586</v>
+        <v>45584</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F50" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G50" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>45588</v>
+        <v>45586</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>20</v>
@@ -2473,50 +2545,47 @@
         <v>28</v>
       </c>
       <c r="F51" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G51" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>45588</v>
+        <v>45586</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F52" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G52" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="H52" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>45588</v>
+        <v>45586</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" t="s">
-        <v>118</v>
+        <v>69</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>28</v>
@@ -2525,87 +2594,90 @@
         <v>10</v>
       </c>
       <c r="G53" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>45588</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F54" s="10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G54" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>45602</v>
+        <v>45588</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>147</v>
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
+        <v>104</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F55" s="10">
-        <v>10</v>
-      </c>
-      <c r="H55" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>45588</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F56" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G56" s="6">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>18</v>
@@ -2614,21 +2686,21 @@
         <v>28</v>
       </c>
       <c r="F57" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G57" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>18</v>
@@ -2637,67 +2709,67 @@
         <v>28</v>
       </c>
       <c r="F58" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G58" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>45607</v>
+        <v>45602</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
+      </c>
+      <c r="C59" t="s">
+        <v>158</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F59" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G59" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" t="s">
-        <v>52</v>
+        <v>173</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F60" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G60" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>45586</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>18</v>
@@ -2706,67 +2778,67 @@
         <v>28</v>
       </c>
       <c r="F61" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G61" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>45602</v>
+        <v>45586</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F62" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G62" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>45602</v>
+        <v>45588</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" t="s">
-        <v>160</v>
+        <v>77</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F63" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G63" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>45602</v>
+        <v>45588</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>18</v>
@@ -2775,47 +2847,47 @@
         <v>28</v>
       </c>
       <c r="F64" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G64" s="6">
-        <v>0.3</v>
+        <v>0.4</v>
+      </c>
+      <c r="H64" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>45590</v>
+        <v>45588</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F65" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G65" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>45590</v>
+        <v>45588</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>20</v>
@@ -2824,56 +2896,56 @@
         <v>28</v>
       </c>
       <c r="F66" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G66" s="6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>45584</v>
+        <v>45602</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F67" s="10">
-        <v>7</v>
-      </c>
-      <c r="G67" s="6">
-        <v>0.5</v>
+        <v>10</v>
+      </c>
+      <c r="H67" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>45584</v>
+        <v>45588</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>26</v>
+        <v>105</v>
+      </c>
+      <c r="C68" t="s">
+        <v>107</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F68" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G68" s="6">
-        <v>5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -2881,10 +2953,10 @@
         <v>45586</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>18</v>
@@ -2896,7 +2968,7 @@
         <v>9</v>
       </c>
       <c r="G69" s="6">
-        <v>1.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -2904,10 +2976,10 @@
         <v>45586</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" t="s">
-        <v>35</v>
+        <v>59</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>18</v>
@@ -2916,7 +2988,7 @@
         <v>28</v>
       </c>
       <c r="F70" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G70" s="6">
         <v>1</v>
@@ -2927,22 +2999,22 @@
         <v>45607</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C71" t="s">
-        <v>188</v>
+        <v>183</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F71" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G71" s="6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -2950,194 +3022,209 @@
         <v>45607</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>172</v>
+        <v>221</v>
+      </c>
+      <c r="C72" t="s">
+        <v>222</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F72" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G72" s="6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>199</v>
+        <v>51</v>
+      </c>
+      <c r="C73" t="s">
+        <v>52</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F73" s="10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G73" s="6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C74" t="s">
-        <v>205</v>
+        <v>61</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E74" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F74" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G74" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>45588</v>
+        <v>45602</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" t="s">
-        <v>109</v>
+        <v>162</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F75" s="10">
-        <v>15</v>
-      </c>
-      <c r="H75" s="8">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="G75" s="6">
+        <v>0.4</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>45586</v>
+        <v>45602</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>159</v>
+      </c>
+      <c r="C76" t="s">
+        <v>160</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F76" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G76" s="6">
-        <v>20</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>45586</v>
+        <v>45602</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F77" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G77" s="6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>45586</v>
+        <v>45590</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>44</v>
+        <v>136</v>
+      </c>
+      <c r="C78" t="s">
+        <v>137</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F78" s="10">
         <v>5</v>
       </c>
       <c r="G78" s="6">
-        <v>1</v>
+        <v>0.4</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>45588</v>
+        <v>45590</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F79" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G79" s="6">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>45602</v>
+        <v>45584</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>153</v>
+        <v>14</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F80" s="10">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="G80" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -3145,64 +3232,67 @@
         <v>45584</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F81" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G81" s="6">
-        <v>1</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C82" t="s">
-        <v>182</v>
+        <v>45</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F82" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G82" s="6">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>194</v>
+        <v>34</v>
+      </c>
+      <c r="C83" t="s">
+        <v>35</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F83" s="10">
-        <v>7</v>
-      </c>
-      <c r="H83" s="8">
+        <v>10</v>
+      </c>
+      <c r="G83" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3211,45 +3301,45 @@
         <v>45607</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>187</v>
+      </c>
+      <c r="C84" t="s">
+        <v>188</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F84" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G84" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" t="s">
-        <v>84</v>
+        <v>170</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F85" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G85" s="6">
-        <v>1.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -3257,22 +3347,22 @@
         <v>45607</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C86" t="s">
-        <v>213</v>
+        <v>198</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F86" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G86" s="6">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -3280,19 +3370,16 @@
         <v>45607</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C87" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F87" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G87" s="6">
         <v>1</v>
@@ -3300,171 +3387,162 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>45588</v>
+        <v>45608</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C88" t="s">
-        <v>86</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>38</v>
+        <v>235</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="F88" s="10">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="I88" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>108</v>
+      </c>
+      <c r="C89" t="s">
+        <v>109</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G89" s="6">
+        <v>38</v>
+      </c>
+      <c r="F89" s="10">
+        <v>15</v>
+      </c>
+      <c r="H89" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>45588</v>
+        <v>45586</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>18</v>
+        <v>74</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F90" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G90" s="6">
-        <v>15</v>
-      </c>
-      <c r="I90" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>45588</v>
+        <v>45608</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>89</v>
+        <v>258</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>259</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="F91" s="10">
+        <v>24</v>
+      </c>
+      <c r="G91" s="6">
         <v>2</v>
-      </c>
-      <c r="G91" s="6">
-        <v>0.6</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C92" t="s">
-        <v>203</v>
+        <v>48</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="F92" s="10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G92" s="6">
-        <v>2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>45584</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>10</v>
+        <v>45586</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F93" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G93" s="6">
-        <v>3</v>
-      </c>
-      <c r="H93" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>45607</v>
+        <v>45588</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c r="C94" t="s">
-        <v>197</v>
+        <v>82</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F94" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G94" s="6">
-        <v>5</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>45586</v>
+        <v>45602</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>38</v>
@@ -3472,28 +3550,28 @@
       <c r="F95" s="10">
         <v>1</v>
       </c>
-      <c r="G95" s="6">
-        <v>0.75</v>
-      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>45607</v>
+        <v>45584</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F96" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G96" s="6">
-        <v>0.6</v>
+        <v>1</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -3501,22 +3579,22 @@
         <v>45607</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>219</v>
+        <v>181</v>
+      </c>
+      <c r="C97" t="s">
+        <v>182</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F97" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>220</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -3524,22 +3602,19 @@
         <v>45607</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C98" t="s">
-        <v>222</v>
+        <v>193</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F98" s="10">
-        <v>2</v>
-      </c>
-      <c r="G98" s="6">
-        <v>0.5</v>
+        <v>7</v>
+      </c>
+      <c r="H98" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -3547,19 +3622,407 @@
         <v>45607</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>225</v>
+        <v>32</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F99" s="10">
+        <v>3</v>
+      </c>
+      <c r="G99" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F100" s="10">
+        <v>6</v>
+      </c>
+      <c r="G100" s="6">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C101" t="s">
+        <v>213</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" s="10">
+        <v>16</v>
+      </c>
+      <c r="G101" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F102" s="10">
+        <v>2</v>
+      </c>
+      <c r="G102" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F103" s="10">
+        <v>7</v>
+      </c>
+      <c r="G103" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F104" s="10">
+        <v>2</v>
+      </c>
+      <c r="G104" s="6">
+        <v>4</v>
+      </c>
+      <c r="H104" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" t="s">
+        <v>211</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F105" s="10">
+        <v>7</v>
+      </c>
+      <c r="G105" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" t="s">
+        <v>86</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F106" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G107" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="10">
+        <v>10</v>
+      </c>
+      <c r="G108" s="6">
+        <v>15</v>
+      </c>
+      <c r="I108" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C109" t="s">
+        <v>91</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F109" s="10">
+        <v>2</v>
+      </c>
+      <c r="G109" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C110" t="s">
+        <v>203</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F110" s="10">
+        <v>9</v>
+      </c>
+      <c r="G110" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>45584</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F111" s="10">
+        <v>4</v>
+      </c>
+      <c r="G111" s="6">
+        <v>3</v>
+      </c>
+      <c r="H111" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C112" t="s">
+        <v>197</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F112" s="10">
+        <v>3</v>
+      </c>
+      <c r="G112" s="6">
         <v>5</v>
       </c>
-      <c r="K99" s="2" t="s">
-        <v>226</v>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F113" s="10">
+        <v>3</v>
+      </c>
+      <c r="G113" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F114" s="10">
+        <v>1</v>
+      </c>
+      <c r="G114" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F115" s="10">
+        <v>4</v>
+      </c>
+      <c r="I115" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" s="10">
+        <v>1</v>
+      </c>
+      <c r="G116" s="6">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/src/inventory.xlsx
+++ b/src/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Erik\Dropbox\component-inventory\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52524935-E1E6-417F-9ACB-B83F225240A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E8316E-79B7-46A4-A404-E5EDCBF378A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27600" yWindow="-4340" windowWidth="28770" windowHeight="17630" xr2:uid="{7B4DE2BE-437B-4368-A10E-354E74019CAE}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="295">
   <si>
     <t>What (ID)</t>
   </si>
@@ -891,6 +891,111 @@
   </si>
   <si>
     <t>Frequency to Voltage Converter</t>
+  </si>
+  <si>
+    <t>AD7524JN</t>
+  </si>
+  <si>
+    <t>8-Bit Buffered Multiplying DAC</t>
+  </si>
+  <si>
+    <t>TDA5145</t>
+  </si>
+  <si>
+    <t>Brushless DC motor drive circuit</t>
+  </si>
+  <si>
+    <t>DIP28</t>
+  </si>
+  <si>
+    <t>PC89C51RD</t>
+  </si>
+  <si>
+    <t>Microcintroller</t>
+  </si>
+  <si>
+    <t>DIP40</t>
+  </si>
+  <si>
+    <t>NE5230N</t>
+  </si>
+  <si>
+    <t>IQXO-100C</t>
+  </si>
+  <si>
+    <t>Oscillator 4.9152MHz</t>
+  </si>
+  <si>
+    <t>IRFP9140</t>
+  </si>
+  <si>
+    <t>19A, 100V, 0.200 Ohm, P-Channel Power MOSFET</t>
+  </si>
+  <si>
+    <t>TO247</t>
+  </si>
+  <si>
+    <t>TCA580</t>
+  </si>
+  <si>
+    <t>Gyrator</t>
+  </si>
+  <si>
+    <t>GSIB1540</t>
+  </si>
+  <si>
+    <t>Rectifier 250V/15A</t>
+  </si>
+  <si>
+    <t>SN7407</t>
+  </si>
+  <si>
+    <t>Hex Buffers and Drivers; High voltage output</t>
+  </si>
+  <si>
+    <t>74HC374N</t>
+  </si>
+  <si>
+    <t>74HC</t>
+  </si>
+  <si>
+    <t>74LS</t>
+  </si>
+  <si>
+    <t>Octal D-type flip-flop</t>
+  </si>
+  <si>
+    <t>RO650</t>
+  </si>
+  <si>
+    <t>TDA1034B</t>
+  </si>
+  <si>
+    <t>AD734</t>
+  </si>
+  <si>
+    <t>10 MHz, Four-Quadrant multiplier/divider</t>
+  </si>
+  <si>
+    <t>LA02-0201-1</t>
+  </si>
+  <si>
+    <t>? (accelerometer/inclinometer?)</t>
+  </si>
+  <si>
+    <t>LT1056</t>
+  </si>
+  <si>
+    <t>OP50</t>
+  </si>
+  <si>
+    <t>LH0032CG</t>
+  </si>
+  <si>
+    <t>MAB8440</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
   </si>
 </sst>
 </file>
@@ -1087,10 +1192,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A3:K116" totalsRowShown="0">
-  <autoFilter ref="A3:K116" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K116">
-    <sortCondition ref="B3:B116"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A3:K134" totalsRowShown="0">
+  <autoFilter ref="A3:K134" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K124">
+    <sortCondition ref="B3:B124"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{C4F97701-1496-46B7-9BA9-0E2C3EE5AEE8}" name="Date entered" dataDxfId="10"/>
@@ -1426,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E1E352-0B9B-45A5-97A3-5920624A3ECD}">
-  <dimension ref="A3:K116"/>
+  <dimension ref="A3:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="I134" sqref="I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1610,8 +1715,11 @@
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="F9" s="10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G9" s="6">
         <v>0.6</v>
@@ -1630,6 +1738,9 @@
       <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="F10" s="11" t="s">
         <v>249</v>
       </c>
@@ -1650,6 +1761,9 @@
       <c r="C11" s="2" t="s">
         <v>248</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="F11" s="11" t="s">
         <v>249</v>
       </c>
@@ -1670,29 +1784,28 @@
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="F12" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>45607</v>
+        <v>45609</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F13" s="10">
-        <f>14+13</f>
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="H13" s="8">
         <v>1</v>
@@ -1703,73 +1816,73 @@
         <v>45607</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>225</v>
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F14" s="10">
-        <v>5</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>226</v>
+        <v>29</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>45584</v>
+        <v>45607</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>223</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" s="10">
         <v>9</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="10">
-        <v>7</v>
-      </c>
-      <c r="G15" s="6">
-        <v>2.5</v>
+      <c r="K15" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>45617</v>
+        <v>45584</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="10">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G16" s="6">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>45608</v>
+        <v>45617</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>72</v>
@@ -1778,10 +1891,10 @@
         <v>38</v>
       </c>
       <c r="F17" s="10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G17" s="6">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1789,10 +1902,10 @@
         <v>45608</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>72</v>
@@ -1804,18 +1917,18 @@
         <v>6</v>
       </c>
       <c r="G18" s="6">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>45586</v>
+        <v>45608</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>240</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>72</v>
@@ -1823,22 +1936,22 @@
       <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>30</v>
+      <c r="F19" s="10">
+        <v>6</v>
       </c>
       <c r="G19" s="6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>45602</v>
+        <v>45586</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>72</v>
@@ -1846,8 +1959,8 @@
       <c r="E20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="10">
-        <v>3</v>
+      <c r="F20" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="G20" s="6">
         <v>0.1</v>
@@ -1855,13 +1968,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>45607</v>
+        <v>45602</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>72</v>
@@ -1869,22 +1982,22 @@
       <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>33</v>
+      <c r="F21" s="10">
+        <v>3</v>
       </c>
       <c r="G21" s="6">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>45590</v>
+        <v>45607</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>72</v>
@@ -1892,68 +2005,68 @@
       <c r="E22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="10">
-        <v>5</v>
+      <c r="F22" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G22" s="6">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>45586</v>
+        <v>45590</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>33</v>
+      <c r="F23" s="10">
+        <v>5</v>
       </c>
       <c r="G23" s="6">
-        <v>17</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>45608</v>
+        <v>45586</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>237</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="10">
-        <v>4</v>
+      <c r="F24" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G24" s="6">
-        <v>0.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>45602</v>
+        <v>45608</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>166</v>
@@ -1962,7 +2075,7 @@
         <v>38</v>
       </c>
       <c r="F25" s="10">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G25" s="6">
         <v>0.4</v>
@@ -1970,59 +2083,59 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>45607</v>
+        <v>45602</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F26" s="10">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G26" s="6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F27" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27" s="6">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>45608</v>
+        <v>45588</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C28" t="s">
-        <v>253</v>
+        <v>125</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>126</v>
@@ -2030,65 +2143,65 @@
       <c r="E28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>33</v>
+      <c r="F28" s="10">
+        <v>3</v>
       </c>
       <c r="G28" s="6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>124</v>
+        <v>252</v>
+      </c>
+      <c r="C29" t="s">
+        <v>253</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="10">
-        <v>6</v>
+      <c r="F29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>45602</v>
+        <v>45607</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="10">
-        <v>20</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>45607</v>
+        <v>45602</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>76</v>
@@ -2097,44 +2210,44 @@
         <v>38</v>
       </c>
       <c r="F31" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G31" s="6">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>45590</v>
+        <v>45607</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>33</v>
+      <c r="F32" s="10">
+        <v>19</v>
       </c>
       <c r="G32" s="6">
-        <v>6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>45602</v>
+        <v>45590</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>141</v>
@@ -2142,71 +2255,71 @@
       <c r="E33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="10">
-        <v>25</v>
-      </c>
-      <c r="H33" s="8">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>145</v>
+      <c r="F33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>45607</v>
+        <v>45602</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="10">
-        <v>15</v>
-      </c>
-      <c r="G34" s="6">
+        <v>25</v>
+      </c>
+      <c r="H34" s="8">
         <v>1</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F35" s="10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G35" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>73</v>
@@ -2215,56 +2328,56 @@
         <v>38</v>
       </c>
       <c r="F36" s="10">
+        <v>18</v>
+      </c>
+      <c r="G36" s="6">
         <v>2</v>
-      </c>
-      <c r="G36" s="6">
-        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>45588</v>
+        <v>45586</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" t="s">
-        <v>95</v>
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F37" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G37" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>45607</v>
+        <v>45588</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>190</v>
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F38" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G38" s="6">
-        <v>0.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2272,65 +2385,68 @@
         <v>45607</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F39" s="10">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G39" s="6">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>45602</v>
+        <v>45607</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F40" s="10">
-        <v>17</v>
-      </c>
-      <c r="H40" s="8">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="G40" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>45607</v>
+        <v>45602</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C41" t="s">
-        <v>216</v>
+        <v>150</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F41" s="10">
-        <v>24</v>
-      </c>
-      <c r="G41" s="6">
-        <v>0.7</v>
+        <v>17</v>
+      </c>
+      <c r="H41" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2338,65 +2454,65 @@
         <v>45607</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>168</v>
+        <v>215</v>
+      </c>
+      <c r="C42" t="s">
+        <v>216</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="F42" s="10">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G42" s="6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="F43" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G43" s="6">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>45608</v>
+        <v>45588</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F44" s="10">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G44" s="6">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2404,19 +2520,19 @@
         <v>45608</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="F45" s="10">
+        <v>14</v>
+      </c>
+      <c r="G45" s="6">
         <v>1</v>
-      </c>
-      <c r="G45" s="6">
-        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2424,154 +2540,148 @@
         <v>45608</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="F46" s="10">
-        <v>2</v>
-      </c>
-      <c r="I46" s="10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G46" s="6">
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>45590</v>
+        <v>45608</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>28</v>
+        <v>233</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="F47" s="10">
-        <v>8</v>
-      </c>
-      <c r="G47" s="6">
-        <v>0.3</v>
+        <v>2</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>45588</v>
+        <v>45609</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>20</v>
+        <v>276</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F48" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48" s="6">
-        <v>0.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>45607</v>
+        <v>45590</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>200</v>
+        <v>133</v>
+      </c>
+      <c r="C49" t="s">
+        <v>135</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F49" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G49" s="6">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>45584</v>
+        <v>45588</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F50" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G50" s="6">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" t="s">
-        <v>54</v>
+        <v>201</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F51" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G51" s="6">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>45586</v>
+        <v>45584</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F52" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G52" s="6">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -2579,10 +2689,10 @@
         <v>45586</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>20</v>
@@ -2591,44 +2701,44 @@
         <v>28</v>
       </c>
       <c r="F53" s="10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G53" s="6">
-        <v>2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>45588</v>
+        <v>45586</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" t="s">
-        <v>92</v>
+        <v>60</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F54" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G54" s="6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>45588</v>
+        <v>45586</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>20</v>
@@ -2637,13 +2747,10 @@
         <v>28</v>
       </c>
       <c r="F55" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G55" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>139</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -2651,10 +2758,10 @@
         <v>45588</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>18</v>
@@ -2663,7 +2770,7 @@
         <v>28</v>
       </c>
       <c r="F56" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G56" s="6">
         <v>0.5</v>
@@ -2674,33 +2781,36 @@
         <v>45588</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F57" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G57" s="6">
-        <v>1</v>
+        <v>0.2</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>45607</v>
+        <v>45588</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>180</v>
+        <v>111</v>
+      </c>
+      <c r="C58" t="s">
+        <v>112</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>18</v>
@@ -2709,21 +2819,21 @@
         <v>28</v>
       </c>
       <c r="F58" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G58" s="6">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>45602</v>
+        <v>45588</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>18</v>
@@ -2732,10 +2842,10 @@
         <v>28</v>
       </c>
       <c r="F59" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G59" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -2743,33 +2853,33 @@
         <v>45607</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F60" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G60" s="6">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>45586</v>
+        <v>45602</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>55</v>
+        <v>157</v>
+      </c>
+      <c r="C61" t="s">
+        <v>158</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>18</v>
@@ -2778,82 +2888,79 @@
         <v>28</v>
       </c>
       <c r="F61" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G61" s="6">
-        <v>6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F62" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G62" s="6">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>45588</v>
+        <v>45586</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F63" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G63" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>45588</v>
+        <v>45586</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F64" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G64" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="H64" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -2861,19 +2968,19 @@
         <v>45588</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" t="s">
-        <v>118</v>
+        <v>77</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F65" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G65" s="6">
         <v>1</v>
@@ -2884,33 +2991,36 @@
         <v>45588</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" t="s">
-        <v>128</v>
+        <v>101</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F66" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G66" s="6">
-        <v>0.5</v>
+        <v>0.4</v>
+      </c>
+      <c r="H66" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>45602</v>
+        <v>45588</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
+      </c>
+      <c r="C67" t="s">
+        <v>118</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>18</v>
@@ -2921,7 +3031,7 @@
       <c r="F67" s="10">
         <v>10</v>
       </c>
-      <c r="H67" s="8">
+      <c r="G67" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2930,33 +3040,33 @@
         <v>45588</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F68" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G68" s="6">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>45586</v>
+        <v>45602</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>18</v>
@@ -2965,47 +3075,47 @@
         <v>28</v>
       </c>
       <c r="F69" s="10">
-        <v>9</v>
-      </c>
-      <c r="G69" s="6">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="H69" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>68</v>
+        <v>105</v>
+      </c>
+      <c r="C70" t="s">
+        <v>107</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F70" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G70" s="6">
-        <v>1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>28</v>
@@ -3014,18 +3124,18 @@
         <v>9</v>
       </c>
       <c r="G71" s="6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C72" t="s">
-        <v>222</v>
+        <v>59</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>18</v>
@@ -3034,21 +3144,21 @@
         <v>28</v>
       </c>
       <c r="F72" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G72" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" t="s">
-        <v>52</v>
+        <v>183</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>20</v>
@@ -3057,21 +3167,21 @@
         <v>28</v>
       </c>
       <c r="F73" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G73" s="6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>62</v>
+        <v>221</v>
+      </c>
+      <c r="C74" t="s">
+        <v>222</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>18</v>
@@ -3080,7 +3190,7 @@
         <v>28</v>
       </c>
       <c r="F74" s="10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G74" s="6">
         <v>0.5</v>
@@ -3088,36 +3198,36 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>45602</v>
+        <v>45586</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>163</v>
+        <v>51</v>
+      </c>
+      <c r="C75" t="s">
+        <v>52</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F75" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G75" s="6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>45602</v>
+        <v>45586</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C76" t="s">
-        <v>160</v>
+        <v>61</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>18</v>
@@ -3137,10 +3247,10 @@
         <v>45602</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>18</v>
@@ -3149,50 +3259,47 @@
         <v>28</v>
       </c>
       <c r="F77" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G77" s="6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>45590</v>
+        <v>45602</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F78" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G78" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>138</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>45590</v>
+        <v>45602</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C79" t="s">
-        <v>132</v>
+        <v>148</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>28</v>
@@ -3201,87 +3308,90 @@
         <v>8</v>
       </c>
       <c r="G79" s="6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>45584</v>
+        <v>45590</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>136</v>
+      </c>
+      <c r="C80" t="s">
+        <v>137</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F80" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G80" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>45584</v>
+        <v>45590</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>26</v>
+        <v>131</v>
+      </c>
+      <c r="C81" t="s">
+        <v>132</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F81" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G81" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>45586</v>
+        <v>45584</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F82" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G82" s="6">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>45586</v>
+        <v>45584</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>18</v>
@@ -3293,18 +3403,18 @@
         <v>10</v>
       </c>
       <c r="G83" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C84" t="s">
-        <v>188</v>
+        <v>45</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>18</v>
@@ -3313,44 +3423,44 @@
         <v>28</v>
       </c>
       <c r="F84" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G84" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
+      </c>
+      <c r="C85" t="s">
+        <v>35</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F85" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G85" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>45607</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
+      </c>
+      <c r="C86" t="s">
+        <v>188</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>18</v>
@@ -3359,308 +3469,305 @@
         <v>28</v>
       </c>
       <c r="F86" s="10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G86" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>45607</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" s="10">
+        <v>5</v>
+      </c>
+      <c r="G87" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="10">
+        <v>10</v>
+      </c>
+      <c r="G88" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C89" t="s">
         <v>205</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F89" s="10">
         <v>4</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G89" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="4">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F90" s="10">
+        <v>5</v>
+      </c>
+      <c r="G90" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" s="10">
+        <v>1</v>
+      </c>
+      <c r="H91" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
         <v>45608</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F92" s="10">
         <v>3</v>
       </c>
-      <c r="I88" s="10">
+      <c r="I92" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
         <v>45588</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C93" t="s">
         <v>109</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F89" s="10">
-        <v>15</v>
-      </c>
-      <c r="H89" s="8">
+      <c r="F93" s="10">
+        <v>17</v>
+      </c>
+      <c r="H93" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="4">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
         <v>45586</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F90" s="10">
-        <v>3</v>
-      </c>
-      <c r="G90" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C91" t="s">
-        <v>259</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F91" s="10">
-        <v>24</v>
-      </c>
-      <c r="G91" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F92" s="10">
-        <v>4</v>
-      </c>
-      <c r="G92" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F93" s="10">
-        <v>5</v>
-      </c>
-      <c r="G93" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C94" t="s">
-        <v>82</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F94" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G94" s="6">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>45602</v>
+        <v>45608</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>38</v>
+        <v>258</v>
+      </c>
+      <c r="C95" t="s">
+        <v>259</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F95" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G95" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>45584</v>
+        <v>45586</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F96" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G96" s="6">
-        <v>1</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>24</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C97" t="s">
-        <v>182</v>
+        <v>43</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F97" s="10">
+        <v>5</v>
+      </c>
+      <c r="G97" s="6">
         <v>1</v>
-      </c>
-      <c r="G97" s="6">
-        <v>0.2</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>45607</v>
+        <v>45588</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>194</v>
+        <v>81</v>
+      </c>
+      <c r="C98" t="s">
+        <v>82</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E98" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F98" s="10">
-        <v>7</v>
-      </c>
-      <c r="H98" s="8">
         <v>1</v>
+      </c>
+      <c r="G98" s="6">
+        <v>0.35</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>45607</v>
+        <v>45602</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F99" s="10">
-        <v>3</v>
-      </c>
-      <c r="G99" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>45588</v>
+        <v>45584</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C100" t="s">
-        <v>84</v>
+        <v>21</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F100" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G100" s="6">
-        <v>1.3</v>
+        <v>1</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -3668,22 +3775,22 @@
         <v>45607</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F101" s="10">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G101" s="6">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -3691,33 +3798,30 @@
         <v>45607</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F102" s="10">
-        <v>2</v>
-      </c>
-      <c r="G102" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>220</v>
+        <v>7</v>
+      </c>
+      <c r="H102" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>45608</v>
+        <v>45607</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>32</v>
@@ -3726,36 +3830,33 @@
         <v>40</v>
       </c>
       <c r="F103" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G103" s="6">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>45608</v>
+        <v>45588</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>232</v>
+        <v>83</v>
+      </c>
+      <c r="C104" t="s">
+        <v>84</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F104" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G104" s="6">
-        <v>4</v>
-      </c>
-      <c r="H104" s="8">
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -3763,10 +3864,10 @@
         <v>45607</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C105" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>73</v>
@@ -3775,41 +3876,44 @@
         <v>38</v>
       </c>
       <c r="F105" s="10">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G105" s="6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C106" t="s">
-        <v>86</v>
+        <v>218</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F106" s="10">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G106" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>45586</v>
+        <v>45608</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>32</v>
@@ -3817,100 +3921,100 @@
       <c r="E107" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F107" s="10" t="s">
-        <v>33</v>
+      <c r="F107" s="10">
+        <v>8</v>
       </c>
       <c r="G107" s="6">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>45588</v>
+        <v>45608</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F108" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G108" s="6">
-        <v>15</v>
-      </c>
-      <c r="I108" s="10">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H108" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="C109" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="F109" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G109" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>45607</v>
+        <v>45588</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="C110" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F110" s="10">
-        <v>9</v>
-      </c>
-      <c r="G110" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>45584</v>
+        <v>45609</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F111" s="10">
-        <v>4</v>
-      </c>
-      <c r="G111" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H111" s="8">
         <v>1</v>
@@ -3918,111 +4022,498 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C112" t="s">
-        <v>197</v>
+        <v>31</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F112" s="10">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G112" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>45608</v>
+        <v>45588</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F113" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G113" s="6">
-        <v>0.9</v>
+        <v>15</v>
+      </c>
+      <c r="I113" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>45586</v>
+        <v>45609</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="F114" s="10">
         <v>1</v>
       </c>
       <c r="G114" s="6">
-        <v>0.75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>45608</v>
+        <v>45588</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>255</v>
+        <v>89</v>
+      </c>
+      <c r="C115" t="s">
+        <v>91</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="F115" s="10">
-        <v>4</v>
-      </c>
-      <c r="I115" s="10">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G115" s="6">
+        <v>0.6</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C116" t="s">
+        <v>203</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F116" s="10">
+        <v>9</v>
+      </c>
+      <c r="G116" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="4">
+        <v>45584</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F117" s="10">
+        <v>4</v>
+      </c>
+      <c r="G117" s="6">
+        <v>3</v>
+      </c>
+      <c r="H117" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" s="10">
+        <v>9</v>
+      </c>
+      <c r="G118" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C119" t="s">
+        <v>197</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F119" s="10">
+        <v>3</v>
+      </c>
+      <c r="G119" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C120" t="s">
+        <v>263</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F120" s="10">
+        <v>2</v>
+      </c>
+      <c r="H120" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="4">
         <v>45608</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B121" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F121" s="10">
+        <v>4</v>
+      </c>
+      <c r="G121" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" s="10">
+        <v>1</v>
+      </c>
+      <c r="G122" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F123" s="10">
+        <v>4</v>
+      </c>
+      <c r="I123" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F116" s="10">
+      <c r="F124" s="10">
         <v>1</v>
       </c>
-      <c r="G116" s="6">
+      <c r="G124" s="6">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C125" t="s">
+        <v>279</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F125" s="10">
+        <v>8</v>
+      </c>
+      <c r="G125" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C126" t="s">
+        <v>283</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F126" s="10">
+        <v>17</v>
+      </c>
+      <c r="H126" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127" s="10">
+        <v>13</v>
+      </c>
+      <c r="I127" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F128" s="10">
+        <v>13</v>
+      </c>
+      <c r="H128" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C129" t="s">
+        <v>287</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F129" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F130" s="10">
+        <v>3</v>
+      </c>
+      <c r="H130" s="8">
+        <v>1</v>
+      </c>
+      <c r="I130" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F131" s="10">
+        <v>6</v>
+      </c>
+      <c r="G131" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F132" s="10">
+        <v>9</v>
+      </c>
+      <c r="H132" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F133" s="10">
+        <v>9</v>
+      </c>
+      <c r="G133" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" s="10">
+        <v>3</v>
+      </c>
+      <c r="H134" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/inventory.xlsx
+++ b/src/inventory.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Erik\Dropbox\component-inventory\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E8316E-79B7-46A4-A404-E5EDCBF378A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072CE2EB-23DA-4AB6-9511-6F5D568DC868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27600" yWindow="-4340" windowWidth="28770" windowHeight="17630" xr2:uid="{7B4DE2BE-437B-4368-A10E-354E74019CAE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Components" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="322">
   <si>
     <t>What (ID)</t>
   </si>
@@ -569,9 +569,6 @@
     <t>PNP mediuym power transistor</t>
   </si>
   <si>
-    <t>LM340KC</t>
-  </si>
-  <si>
     <t>Voltage regulator</t>
   </si>
   <si>
@@ -996,6 +993,90 @@
   </si>
   <si>
     <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>74HC20</t>
+  </si>
+  <si>
+    <t>Dual 4-input NAND gate</t>
+  </si>
+  <si>
+    <t>74HC14</t>
+  </si>
+  <si>
+    <t>Hex Schmitt−Trigger Inverter</t>
+  </si>
+  <si>
+    <t>HEF40193B</t>
+  </si>
+  <si>
+    <t>4-bit up/down binary counter</t>
+  </si>
+  <si>
+    <t>74HC21</t>
+  </si>
+  <si>
+    <t>Dual 4-input AND gate</t>
+  </si>
+  <si>
+    <t>Hex Buffers with High Voltage Open-Collector Outputs</t>
+  </si>
+  <si>
+    <t>74HC86</t>
+  </si>
+  <si>
+    <t>Quadruple 2-input exclusive OR gates</t>
+  </si>
+  <si>
+    <t>74HC165</t>
+  </si>
+  <si>
+    <t>8-bit parallel-in/serial-out shift</t>
+  </si>
+  <si>
+    <t>74HC194</t>
+  </si>
+  <si>
+    <t>74HC373</t>
+  </si>
+  <si>
+    <t>Transparent D-Type Latches</t>
+  </si>
+  <si>
+    <t>74HC10</t>
+  </si>
+  <si>
+    <t>74HC04</t>
+  </si>
+  <si>
+    <t>Hex inverters</t>
+  </si>
+  <si>
+    <t>74HC240</t>
+  </si>
+  <si>
+    <t>Octal buffer/line driver; 3-state; inverting</t>
+  </si>
+  <si>
+    <t>74HC08</t>
+  </si>
+  <si>
+    <t>Quad 2−Input AND Gate</t>
+  </si>
+  <si>
+    <t>RC3403</t>
+  </si>
+  <si>
+    <t>Ground sensing quad opamp</t>
+  </si>
+  <si>
+    <t>745-0007</t>
+  </si>
+  <si>
+    <t>Hexadecimal display with logic</t>
+  </si>
+  <si>
+    <t>LM340</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1105,12 +1186,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1159,25 +1262,6 @@
       </font>
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1192,23 +1276,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A3:K134" totalsRowShown="0">
-  <autoFilter ref="A3:K134" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K124">
-    <sortCondition ref="B3:B124"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A3:K149" totalsRowShown="0">
+  <autoFilter ref="A3:K149" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K149">
+    <sortCondition ref="B3:B149"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{C4F97701-1496-46B7-9BA9-0E2C3EE5AEE8}" name="Date entered" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{4DC12199-FF40-45B6-B436-8A468545B299}" name="What (ID)" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{69F80D61-7C25-4979-AC65-07BF974B94CD}" name="Description" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{866FE6F7-4C77-4DFC-8276-626C8EFC52FE}" name="Physical" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{F0522F8C-239A-47D3-AAC3-84C0298DE03D}" name="Category" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{5D10E9C5-0203-477A-BE8A-702095729964}" name="#" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{58836982-1560-4468-B3FA-C719BF7A6B8E}" name="Price new" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{2B911097-BF1F-4AE7-9FBF-4EB61E6FEAA0}" name="Discontinued?" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="9" xr3:uid="{733B96AD-1052-4C23-ACF8-4BC73BCF75D1}" name="Info?" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{C11A6F65-BB37-4457-96CC-87484A26B267}" name="Location hint" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{A74B9126-8E11-4AC0-B51E-172A497977C6}" name="Remarks" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C4F97701-1496-46B7-9BA9-0E2C3EE5AEE8}" name="Date entered" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{4DC12199-FF40-45B6-B436-8A468545B299}" name="What (ID)" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{69F80D61-7C25-4979-AC65-07BF974B94CD}" name="Description" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{866FE6F7-4C77-4DFC-8276-626C8EFC52FE}" name="Physical" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{F0522F8C-239A-47D3-AAC3-84C0298DE03D}" name="Category" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{5D10E9C5-0203-477A-BE8A-702095729964}" name="#" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{58836982-1560-4468-B3FA-C719BF7A6B8E}" name="Price new" dataDxfId="10" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{2B911097-BF1F-4AE7-9FBF-4EB61E6FEAA0}" name="Discontinued?" dataDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{733B96AD-1052-4C23-ACF8-4BC73BCF75D1}" name="Info?" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{C11A6F65-BB37-4457-96CC-87484A26B267}" name="Location hint" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{A74B9126-8E11-4AC0-B51E-172A497977C6}" name="Remarks" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1531,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E1E352-0B9B-45A5-97A3-5920624A3ECD}">
-  <dimension ref="A3:K134"/>
+  <dimension ref="A3:K149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="I134" sqref="I134"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,1585 +1673,1572 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>45609</v>
+      </c>
+      <c r="B4" s="12">
+        <v>7407</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>302</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="10">
-        <v>7</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E4" s="12">
+        <v>74</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>45588</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F5" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
+        <v>45586</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="10">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6">
         <v>2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>45588</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>119</v>
+        <v>45586</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="10">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6">
         <v>2</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>217</v>
+        <v>45588</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>281</v>
+        <v>96</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F9" s="10">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G9" s="6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>45303</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>256</v>
+        <v>45609</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="H10" s="8">
+        <v>320</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>247</v>
+        <v>45609</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>311</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>249</v>
+        <v>312</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" s="10">
+        <v>26</v>
       </c>
       <c r="G11" s="6">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>115</v>
+        <v>45609</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" t="s">
+        <v>316</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F12" s="10">
-        <v>8</v>
+      <c r="E12" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45609</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>260</v>
+      <c r="B13" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>261</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="F13" s="10">
-        <v>5</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.45</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>45609</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" t="s">
+        <v>297</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="F14" s="10">
-        <v>29</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>223</v>
+        <v>45609</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>225</v>
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="F15" s="10">
-        <v>9</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>226</v>
+        <v>28</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>45584</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>45609</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="F16" s="10">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G16" s="6">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>45617</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>242</v>
+        <v>45609</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="10">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="G17" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>239</v>
+        <v>45609</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" t="s">
+        <v>301</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="10">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="G18" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>241</v>
+        <v>45609</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" t="s">
+        <v>314</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>106</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="F19" s="10">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G19" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>45609</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>308</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>106</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>30</v>
       </c>
       <c r="G20" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>45602</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>155</v>
+        <v>45609</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" t="s">
+        <v>282</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>106</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="F21" s="10">
-        <v>3</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45607</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>208</v>
+      <c r="B22" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F22" s="10">
+        <v>20</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>45303</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>45590</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="G25" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F26" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C27" t="s">
+        <v>286</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="10">
+        <v>5</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="10">
         <v>29</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="10">
-        <v>5</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="10">
-        <v>4</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>45602</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="10">
-        <v>14</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="10">
-        <v>5</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="10">
-        <v>3</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C29" t="s">
-        <v>253</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45607</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>195</v>
+      <c r="B30" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>124</v>
+        <v>223</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="10">
+        <v>9</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>45584</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="10">
+        <v>7</v>
+      </c>
+      <c r="G31" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>45617</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="10">
+        <v>11</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="10">
+        <v>6</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="10">
+        <v>6</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>45602</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="10">
+        <v>3</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>45590</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="10">
+        <v>5</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E39" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>45602</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="F39" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="10">
-        <v>20</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="10">
-        <v>19</v>
-      </c>
-      <c r="G32" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>45590</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>45602</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="10">
-        <v>25</v>
-      </c>
-      <c r="H34" s="8">
-        <v>1</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="10">
-        <v>15</v>
-      </c>
-      <c r="G35" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="10">
-        <v>18</v>
-      </c>
-      <c r="G36" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="10">
-        <v>2</v>
-      </c>
-      <c r="G37" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="10">
-        <v>8</v>
-      </c>
-      <c r="G38" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="10">
-        <v>1</v>
-      </c>
-      <c r="G39" s="6">
+      <c r="F40" s="10">
+        <v>4</v>
+      </c>
+      <c r="G40" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="10">
-        <v>23</v>
-      </c>
-      <c r="G40" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45602</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>150</v>
+      <c r="B41" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F41" s="10">
-        <v>17</v>
-      </c>
-      <c r="H41" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45607</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C42" t="s">
-        <v>216</v>
+      <c r="B42" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="10">
+        <v>5</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="10">
+        <v>3</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45602</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="10">
         <v>20</v>
       </c>
-      <c r="F42" s="10">
-        <v>24</v>
-      </c>
-      <c r="G42" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
+      <c r="G46" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
         <v>45607</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="B47" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="10">
         <v>19</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F43" s="10">
-        <v>8</v>
-      </c>
-      <c r="G43" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="G47" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>45590</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="10">
-        <v>5</v>
-      </c>
-      <c r="G44" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="10">
-        <v>14</v>
-      </c>
-      <c r="G45" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F46" s="10">
-        <v>1</v>
-      </c>
-      <c r="G46" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F47" s="10">
-        <v>2</v>
-      </c>
-      <c r="I47" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>45609</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" s="10">
-        <v>9</v>
+      <c r="F48" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G48" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>45590</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" t="s">
-        <v>135</v>
+        <v>45602</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>28</v>
+        <v>141</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F49" s="10">
-        <v>8</v>
-      </c>
-      <c r="G49" s="6">
-        <v>0.3</v>
+        <v>25</v>
+      </c>
+      <c r="H49" s="8">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" t="s">
-        <v>116</v>
+        <v>45607</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F50" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G50" s="6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>201</v>
+        <v>45588</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="10">
         <v>18</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F51" s="10">
-        <v>9</v>
-      </c>
       <c r="G51" s="6">
-        <v>0.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>45584</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>15</v>
+        <v>45586</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>28</v>
+        <v>73</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F52" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G52" s="6">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>45588</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F53" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G53" s="6">
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>45607</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>28</v>
+        <v>73</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F54" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G54" s="6">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>45607</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>28</v>
+        <v>126</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F55" s="10">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G55" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" t="s">
-        <v>92</v>
+        <v>45602</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F56" s="10">
-        <v>7</v>
-      </c>
-      <c r="G56" s="6">
-        <v>0.5</v>
+        <v>17</v>
+      </c>
+      <c r="H56" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>103</v>
+        <v>45607</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="E57" s="12"/>
       <c r="F57" s="10">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G57" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>139</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" t="s">
-        <v>112</v>
+        <v>45607</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="F58" s="10">
+        <v>8</v>
+      </c>
+      <c r="G58" s="6">
         <v>1</v>
-      </c>
-      <c r="G58" s="6">
-        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>45588</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" t="s">
-        <v>122</v>
+      <c r="B59" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F59" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G59" s="6">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>179</v>
+        <v>45608</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="E60" s="12"/>
       <c r="F60" s="10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G60" s="6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>45602</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61" t="s">
-        <v>158</v>
+        <v>45608</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E61" s="12"/>
       <c r="F61" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G61" s="6">
-        <v>0.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>173</v>
+        <v>45608</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="E62" s="12"/>
       <c r="F62" s="10">
-        <v>8</v>
-      </c>
-      <c r="G62" s="6">
-        <v>1.25</v>
+        <v>2</v>
+      </c>
+      <c r="I62" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>58</v>
+        <v>45609</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>28</v>
+        <v>276</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F63" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G63" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>64</v>
+        <v>45590</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" t="s">
+        <v>135</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F64" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G64" s="6">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>45588</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>78</v>
+      <c r="B65" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" t="s">
+        <v>116</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F65" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G65" s="6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>101</v>
+        <v>45607</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F66" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G66" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="H66" s="8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C67" t="s">
-        <v>118</v>
+        <v>45584</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F67" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G67" s="6">
-        <v>1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>129</v>
+        <v>45586</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F68" s="10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G68" s="6">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>45602</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>146</v>
+        <v>45586</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F69" s="10">
-        <v>10</v>
-      </c>
-      <c r="H69" s="8">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C70" t="s">
-        <v>107</v>
+        <v>45586</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F70" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G70" s="6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>56</v>
+        <v>45588</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" t="s">
+        <v>92</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F71" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G71" s="6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>68</v>
+        <v>45588</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" t="s">
+        <v>104</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F72" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G72" s="6">
-        <v>1</v>
+        <v>0.2</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>184</v>
+        <v>45588</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" t="s">
+        <v>112</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F73" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G73" s="6">
         <v>0.5</v>
@@ -3175,1219 +3246,1247 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>221</v>
+        <v>45588</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="C74" t="s">
-        <v>222</v>
+        <v>122</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F74" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G74" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" t="s">
-        <v>52</v>
+        <v>45609</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F75" s="10">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G75" s="6">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>45607</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F76" s="10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G76" s="6">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>45602</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>163</v>
+      <c r="B77" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" t="s">
+        <v>157</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F77" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G77" s="6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>45602</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C78" t="s">
-        <v>160</v>
+        <v>45607</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F78" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G78" s="6">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>45602</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>148</v>
+        <v>45586</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F79" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G79" s="6">
-        <v>0.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>45590</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C80" t="s">
-        <v>137</v>
+        <v>45586</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F80" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G80" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>45590</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C81" t="s">
-        <v>132</v>
+        <v>45588</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F81" s="10">
         <v>8</v>
       </c>
       <c r="G81" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" s="10">
+        <v>6</v>
+      </c>
+      <c r="G82" s="6">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="4">
-        <v>45584</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F82" s="10">
-        <v>7</v>
-      </c>
-      <c r="G82" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H82" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>45584</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>26</v>
+        <v>45588</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" t="s">
+        <v>118</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F83" s="10">
         <v>10</v>
       </c>
       <c r="G83" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>46</v>
+        <v>45588</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" t="s">
+        <v>128</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F84" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G84" s="6">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" t="s">
-        <v>35</v>
+        <v>45602</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F85" s="10">
         <v>10</v>
       </c>
-      <c r="G85" s="6">
+      <c r="H85" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>187</v>
+        <v>45588</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="C86" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F86" s="10">
+        <v>6</v>
+      </c>
+      <c r="G86" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E87" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F86" s="10">
-        <v>7</v>
-      </c>
-      <c r="G86" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F87" s="10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G87" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>198</v>
+        <v>45586</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>199</v>
+        <v>68</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F88" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G88" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>45607</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C89" t="s">
-        <v>205</v>
+      <c r="B89" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" s="10">
+        <v>9</v>
+      </c>
+      <c r="G89" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" t="s">
+        <v>221</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F89" s="10">
+      <c r="E90" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90" s="10">
+        <v>2</v>
+      </c>
+      <c r="G90" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" t="s">
+        <v>52</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" s="10">
+        <v>7</v>
+      </c>
+      <c r="G91" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F92" s="10">
+        <v>10</v>
+      </c>
+      <c r="G92" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>45602</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" s="10">
         <v>4</v>
       </c>
-      <c r="G89" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="4">
-        <v>45609</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F90" s="10">
+      <c r="G93" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>45602</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94" t="s">
+        <v>159</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" s="10">
+        <v>10</v>
+      </c>
+      <c r="G94" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>45602</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" s="10">
+        <v>8</v>
+      </c>
+      <c r="G95" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>45590</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" t="s">
+        <v>137</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F96" s="10">
         <v>5</v>
-      </c>
-      <c r="G90" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="4">
-        <v>45609</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F91" s="10">
-        <v>1</v>
-      </c>
-      <c r="H91" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F92" s="10">
-        <v>3</v>
-      </c>
-      <c r="I92" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C93" t="s">
-        <v>109</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F93" s="10">
-        <v>17</v>
-      </c>
-      <c r="H93" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F94" s="10">
-        <v>3</v>
-      </c>
-      <c r="G94" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C95" t="s">
-        <v>259</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F95" s="10">
-        <v>24</v>
-      </c>
-      <c r="G95" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F96" s="10">
-        <v>4</v>
       </c>
       <c r="G96" s="6">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>44</v>
+        <v>45590</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" t="s">
+        <v>132</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>40</v>
+      <c r="E97" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="F97" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G97" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C98" t="s">
-        <v>82</v>
+        <v>45584</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>40</v>
+      <c r="E98" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="F98" s="10">
+        <v>7</v>
+      </c>
+      <c r="G98" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>45584</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" s="10">
+        <v>10</v>
+      </c>
+      <c r="G99" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" s="10">
+        <v>9</v>
+      </c>
+      <c r="G100" s="6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" s="10">
+        <v>10</v>
+      </c>
+      <c r="G101" s="6">
         <v>1</v>
       </c>
-      <c r="G98" s="6">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="4">
-        <v>45602</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F99" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="4">
-        <v>45584</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F100" s="10">
-        <v>3</v>
-      </c>
-      <c r="G100" s="6">
-        <v>1</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C101" t="s">
-        <v>182</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F101" s="10">
-        <v>1</v>
-      </c>
-      <c r="G101" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>45607</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>194</v>
+      <c r="B102" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C102" t="s">
+        <v>187</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="F102" s="10">
         <v>7</v>
       </c>
-      <c r="H102" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G102" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>45607</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>178</v>
+      <c r="B103" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>40</v>
+        <v>170</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="F103" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G103" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C104" t="s">
-        <v>84</v>
+        <v>45607</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="F104" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G104" s="6">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>45607</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>212</v>
+      <c r="B105" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="C105" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="12"/>
+      <c r="F105" s="10">
+        <v>4</v>
+      </c>
+      <c r="G105" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E106" s="12"/>
+      <c r="F106" s="10">
+        <v>5</v>
+      </c>
+      <c r="G106" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E107" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F105" s="10">
-        <v>16</v>
-      </c>
-      <c r="G105" s="6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F106" s="10">
-        <v>2</v>
-      </c>
-      <c r="G106" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F107" s="10">
-        <v>8</v>
-      </c>
-      <c r="G107" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H107" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>45608</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>231</v>
+      <c r="B108" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="E108" s="12"/>
       <c r="F108" s="10">
         <v>3</v>
       </c>
-      <c r="G108" s="6">
-        <v>4</v>
-      </c>
-      <c r="H108" s="8">
+      <c r="I108" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E109" s="12"/>
+      <c r="F109" s="10">
+        <v>3</v>
+      </c>
+      <c r="H109" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C109" t="s">
-        <v>211</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E109" s="2" t="s">
+      <c r="I109" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F110" s="10">
+        <v>9</v>
+      </c>
+      <c r="G110" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" t="s">
+        <v>109</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E111" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F109" s="10">
-        <v>7</v>
-      </c>
-      <c r="G109" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C110" t="s">
-        <v>86</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F110" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="4">
-        <v>45609</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F111" s="10">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H111" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>45586</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>31</v>
+      <c r="B112" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F112" s="10">
+        <v>3</v>
+      </c>
+      <c r="G112" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C113" t="s">
+        <v>258</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G112" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="E113" s="12"/>
       <c r="F113" s="10">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G113" s="6">
-        <v>15</v>
-      </c>
-      <c r="I113" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>45609</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>265</v>
+        <v>45586</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>266</v>
+        <v>47</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E114" s="12"/>
       <c r="F114" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G114" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C115" t="s">
-        <v>91</v>
+        <v>45586</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>90</v>
+      <c r="E115" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="F115" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G115" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>202</v>
+        <v>45588</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="C116" t="s">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>106</v>
+        <v>20</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="F116" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G116" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>45584</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>10</v>
+        <v>45602</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>40</v>
+        <v>152</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F117" s="10">
         <v>4</v>
       </c>
       <c r="G117" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="4">
+        <v>45584</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118" s="12"/>
+      <c r="F118" s="10">
         <v>3</v>
       </c>
-      <c r="H117" s="8">
+      <c r="G118" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="4">
-        <v>45609</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F118" s="10">
-        <v>9</v>
-      </c>
-      <c r="G118" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K118" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>45607</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>196</v>
+      <c r="B119" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="C119" t="s">
-        <v>197</v>
-      </c>
-      <c r="E119" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E119" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F119" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G119" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>45609</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C120" t="s">
-        <v>263</v>
+        <v>45607</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>264</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E120" s="12"/>
       <c r="F120" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H120" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>229</v>
+        <v>45607</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="F121" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G121" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>66</v>
+        <v>45588</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C122" t="s">
+        <v>84</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F122" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G122" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E123" s="2" t="s">
+        <v>45607</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C123" t="s">
+        <v>212</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E123" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F123" s="10">
-        <v>4</v>
-      </c>
-      <c r="I123" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="G123" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>250</v>
+        <v>45609</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>289</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="F124" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G124" s="6">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>45609</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C125" t="s">
-        <v>279</v>
+      <c r="B125" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E125" s="12"/>
+      <c r="F125" s="10">
+        <v>3</v>
+      </c>
+      <c r="H125" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F125" s="10">
+      <c r="E126" s="12"/>
+      <c r="F126" s="10">
+        <v>2</v>
+      </c>
+      <c r="G126" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F127" s="10">
         <v>8</v>
       </c>
-      <c r="G125" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="4">
-        <v>45609</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C126" t="s">
-        <v>283</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F126" s="10">
-        <v>17</v>
-      </c>
-      <c r="H126" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="4">
-        <v>45609</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F127" s="10">
-        <v>13</v>
-      </c>
-      <c r="I127" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G127" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>45609</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>285</v>
+        <v>45608</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E128" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F128" s="10">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="G128" s="6">
+        <v>4</v>
       </c>
       <c r="H128" s="8">
         <v>1</v>
@@ -4395,47 +4494,53 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>45609</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>286</v>
+        <v>45607</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="C129" t="s">
-        <v>287</v>
+        <v>210</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F129" s="10">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="G129" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>45609</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>289</v>
+        <v>45588</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C130" t="s">
+        <v>86</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F130" s="10">
-        <v>3</v>
-      </c>
-      <c r="H130" s="8">
-        <v>1</v>
-      </c>
-      <c r="I130" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>45609</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>290</v>
+      <c r="B131" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>11</v>
@@ -4443,36 +4548,36 @@
       <c r="D131" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F131" s="10">
-        <v>6</v>
-      </c>
-      <c r="G131" s="6">
         <v>5</v>
+      </c>
+      <c r="H131" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>45609</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>291</v>
+        <v>45586</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E132" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E132" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F132" s="10">
-        <v>9</v>
-      </c>
-      <c r="H132" s="8">
+      <c r="F132" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G132" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4480,40 +4585,380 @@
       <c r="A133" s="4">
         <v>45609</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>292</v>
+      <c r="B133" s="12" t="s">
+        <v>290</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="D133" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F133" s="10">
         <v>9</v>
       </c>
-      <c r="G133" s="6">
-        <v>25</v>
+      <c r="H133" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="12"/>
+      <c r="F134" s="10">
+        <v>10</v>
+      </c>
+      <c r="G134" s="6">
+        <v>15</v>
+      </c>
+      <c r="I134" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="4">
         <v>45609</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="B135" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="F134" s="10">
+      <c r="C135" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E135" s="12"/>
+      <c r="F135" s="10">
+        <v>1</v>
+      </c>
+      <c r="G135" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136" s="12"/>
+      <c r="F136" s="10">
+        <v>12</v>
+      </c>
+      <c r="G136" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137" s="12"/>
+      <c r="F137" s="10">
+        <v>13</v>
+      </c>
+      <c r="I137" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C138" t="s">
+        <v>91</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F138" s="10">
+        <v>2</v>
+      </c>
+      <c r="G138" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C139" t="s">
+        <v>278</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F139" s="10">
+        <v>8</v>
+      </c>
+      <c r="G139" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C140" t="s">
+        <v>202</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E140" s="12"/>
+      <c r="F140" s="10">
+        <v>9</v>
+      </c>
+      <c r="G140" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="4">
+        <v>45584</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F141" s="10">
+        <v>4</v>
+      </c>
+      <c r="G141" s="6">
         <v>3</v>
       </c>
-      <c r="H134" s="8">
+      <c r="H141" s="8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142" s="12"/>
+      <c r="F142" s="10">
+        <v>9</v>
+      </c>
+      <c r="G142" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F143" s="10">
+        <v>13</v>
+      </c>
+      <c r="H143" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C144" t="s">
+        <v>196</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F144" s="10">
+        <v>3</v>
+      </c>
+      <c r="G144" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C145" t="s">
+        <v>262</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E145" s="12"/>
+      <c r="F145" s="10">
+        <v>2</v>
+      </c>
+      <c r="H145" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F146" s="10">
+        <v>4</v>
+      </c>
+      <c r="G146" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F147" s="10">
+        <v>1</v>
+      </c>
+      <c r="G147" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" s="10">
+        <v>4</v>
+      </c>
+      <c r="H148" s="8">
+        <v>1</v>
+      </c>
+      <c r="I148" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" s="10">
+        <v>1</v>
+      </c>
+      <c r="G149" s="6">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/src/inventory.xlsx
+++ b/src/inventory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Erik\Dropbox\component-inventory\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Erik\Persoonlijk\component-inventory\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072CE2EB-23DA-4AB6-9511-6F5D568DC868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BA1E1D-11D1-4FA9-93CF-B0DE09D49F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27600" yWindow="-4340" windowWidth="28770" windowHeight="17630" xr2:uid="{7B4DE2BE-437B-4368-A10E-354E74019CAE}"/>
+    <workbookView xWindow="25670" yWindow="-4240" windowWidth="28770" windowHeight="17630" xr2:uid="{7B4DE2BE-437B-4368-A10E-354E74019CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Components" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="340">
   <si>
     <t>What (ID)</t>
   </si>
@@ -1077,6 +1077,60 @@
   </si>
   <si>
     <t>LM340</t>
+  </si>
+  <si>
+    <t>74HC11</t>
+  </si>
+  <si>
+    <t>Triple 3-input AND gate</t>
+  </si>
+  <si>
+    <t>LTC1062</t>
+  </si>
+  <si>
+    <t>5th Order low-pass filter</t>
+  </si>
+  <si>
+    <t>74HC85</t>
+  </si>
+  <si>
+    <t>4-bit magnitude comparator</t>
+  </si>
+  <si>
+    <t>74HC163</t>
+  </si>
+  <si>
+    <t>Presettable synchronous 4-bit binary counter</t>
+  </si>
+  <si>
+    <t>74HC162</t>
+  </si>
+  <si>
+    <t>Presettable synchronous BCD decade counter</t>
+  </si>
+  <si>
+    <t>74HC30</t>
+  </si>
+  <si>
+    <t>Single 8-Input NAND Gate</t>
+  </si>
+  <si>
+    <t>74HC273</t>
+  </si>
+  <si>
+    <t>Octal D-type flip-flop with reset; positive-edge trigger</t>
+  </si>
+  <si>
+    <t>Octal 3−State Noninverting bus transceiver</t>
+  </si>
+  <si>
+    <t>74HC245</t>
+  </si>
+  <si>
+    <t>74HC151</t>
+  </si>
+  <si>
+    <t>8-input multiplexer</t>
   </si>
 </sst>
 </file>
@@ -1196,25 +1250,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1262,6 +1297,25 @@
       </font>
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1276,23 +1330,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A3:K149" totalsRowShown="0">
-  <autoFilter ref="A3:K149" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A3:K158" totalsRowShown="0">
+  <autoFilter ref="A3:K158" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K149">
     <sortCondition ref="B3:B149"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{C4F97701-1496-46B7-9BA9-0E2C3EE5AEE8}" name="Date entered" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{4DC12199-FF40-45B6-B436-8A468545B299}" name="What (ID)" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{69F80D61-7C25-4979-AC65-07BF974B94CD}" name="Description" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{866FE6F7-4C77-4DFC-8276-626C8EFC52FE}" name="Physical" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{F0522F8C-239A-47D3-AAC3-84C0298DE03D}" name="Category" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{5D10E9C5-0203-477A-BE8A-702095729964}" name="#" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{58836982-1560-4468-B3FA-C719BF7A6B8E}" name="Price new" dataDxfId="10" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{2B911097-BF1F-4AE7-9FBF-4EB61E6FEAA0}" name="Discontinued?" dataDxfId="9" dataCellStyle="Currency"/>
-    <tableColumn id="9" xr3:uid="{733B96AD-1052-4C23-ACF8-4BC73BCF75D1}" name="Info?" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{C11A6F65-BB37-4457-96CC-87484A26B267}" name="Location hint" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{A74B9126-8E11-4AC0-B51E-172A497977C6}" name="Remarks" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{C4F97701-1496-46B7-9BA9-0E2C3EE5AEE8}" name="Date entered" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{4DC12199-FF40-45B6-B436-8A468545B299}" name="What (ID)" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{69F80D61-7C25-4979-AC65-07BF974B94CD}" name="Description" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{866FE6F7-4C77-4DFC-8276-626C8EFC52FE}" name="Physical" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{F0522F8C-239A-47D3-AAC3-84C0298DE03D}" name="Category" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{5D10E9C5-0203-477A-BE8A-702095729964}" name="#" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{58836982-1560-4468-B3FA-C719BF7A6B8E}" name="Price new" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{2B911097-BF1F-4AE7-9FBF-4EB61E6FEAA0}" name="Discontinued?" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{733B96AD-1052-4C23-ACF8-4BC73BCF75D1}" name="Info?" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{C11A6F65-BB37-4457-96CC-87484A26B267}" name="Location hint" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{A74B9126-8E11-4AC0-B51E-172A497977C6}" name="Remarks" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1615,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E1E352-0B9B-45A5-97A3-5920624A3ECD}">
-  <dimension ref="A3:K149"/>
+  <dimension ref="A3:K158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="H158" sqref="H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4961,6 +5015,214 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
+        <v>45610</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F150" s="10">
+        <v>19</v>
+      </c>
+      <c r="G150" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
+        <v>45610</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E151" s="12"/>
+      <c r="F151" s="10">
+        <v>4</v>
+      </c>
+      <c r="G151" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
+        <v>45610</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C152" t="s">
+        <v>327</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G152" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
+        <v>45610</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C153" t="s">
+        <v>329</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F153" s="10">
+        <v>17</v>
+      </c>
+      <c r="G153" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
+        <v>45610</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G154" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
+        <v>45610</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C155" t="s">
+        <v>333</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F155" s="10">
+        <v>8</v>
+      </c>
+      <c r="G155" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
+        <v>45610</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C156" t="s">
+        <v>335</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F156" s="10">
+        <v>23</v>
+      </c>
+      <c r="G156" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
+        <v>45610</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F157" s="10">
+        <v>13</v>
+      </c>
+      <c r="G157" s="6">
+        <v>2</v>
+      </c>
+      <c r="H157" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="4">
+        <v>45610</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C158" t="s">
+        <v>339</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F158" s="10">
+        <v>30</v>
+      </c>
+      <c r="G158" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:I1048576" xr:uid="{B545C138-3061-481A-AA4C-5D47CBE799A5}">

--- a/src/inventory.xlsx
+++ b/src/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Erik\Persoonlijk\component-inventory\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BA1E1D-11D1-4FA9-93CF-B0DE09D49F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBCA855-AC59-483B-85F6-6097E6576CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25670" yWindow="-4240" windowWidth="28770" windowHeight="17630" xr2:uid="{7B4DE2BE-437B-4368-A10E-354E74019CAE}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="363">
   <si>
     <t>What (ID)</t>
   </si>
@@ -1131,6 +1131,75 @@
   </si>
   <si>
     <t>8-input multiplexer</t>
+  </si>
+  <si>
+    <t>74HC259</t>
+  </si>
+  <si>
+    <t>8-bit addressable latch</t>
+  </si>
+  <si>
+    <t>2 bakjes?</t>
+  </si>
+  <si>
+    <t>74HC123</t>
+  </si>
+  <si>
+    <t>Dual Retriggerable Monostable Multivibrators with Resets</t>
+  </si>
+  <si>
+    <t>Like NE555?</t>
+  </si>
+  <si>
+    <t>Looks usefull</t>
+  </si>
+  <si>
+    <t>LN1031</t>
+  </si>
+  <si>
+    <t>74HC221</t>
+  </si>
+  <si>
+    <t>Dual Monostable Multivibrator with Reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like 74HC123? </t>
+  </si>
+  <si>
+    <t>74HC132</t>
+  </si>
+  <si>
+    <t>Quad 2−Input NAND Gate; Schmitt-trigger inputs</t>
+  </si>
+  <si>
+    <t>TCA750</t>
+  </si>
+  <si>
+    <t>Multi-stabilizer for electronic tuning</t>
+  </si>
+  <si>
+    <t>TBA750</t>
+  </si>
+  <si>
+    <t>Limiter/Amplifier</t>
+  </si>
+  <si>
+    <t>TCA420</t>
+  </si>
+  <si>
+    <t>FM IF Amplifier</t>
+  </si>
+  <si>
+    <t>TCA240</t>
+  </si>
+  <si>
+    <t>Double balanced modulator/demodulator</t>
+  </si>
+  <si>
+    <t>TCA220</t>
+  </si>
+  <si>
+    <t>Triple OpAmp Emitter-follower Output</t>
   </si>
 </sst>
 </file>
@@ -1330,10 +1399,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A3:K158" totalsRowShown="0">
-  <autoFilter ref="A3:K158" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K149">
-    <sortCondition ref="B3:B149"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A3:K168" totalsRowShown="0">
+  <autoFilter ref="A3:K168" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K161">
+    <sortCondition ref="B3:B161"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{C4F97701-1496-46B7-9BA9-0E2C3EE5AEE8}" name="Date entered" dataDxfId="10"/>
@@ -1669,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E1E352-0B9B-45A5-97A3-5920624A3ECD}">
-  <dimension ref="A3:K158"/>
+  <dimension ref="A3:K168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="H158" sqref="H158"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169:XFD169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1946,13 +2015,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="C14" t="s">
-        <v>297</v>
+        <v>322</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
@@ -1961,21 +2030,21 @@
         <v>280</v>
       </c>
       <c r="F14" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G14" s="6">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>45609</v>
+        <v>45612</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>306</v>
+        <v>343</v>
+      </c>
+      <c r="C15" t="s">
+        <v>344</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>18</v>
@@ -1983,11 +2052,11 @@
       <c r="E15" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F15" s="10">
-        <v>28</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.7</v>
+      <c r="F15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1995,19 +2064,19 @@
         <v>45609</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>297</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F16" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G16" s="6">
         <v>0.7</v>
@@ -2015,71 +2084,71 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>295</v>
+        <v>338</v>
+      </c>
+      <c r="C17" t="s">
+        <v>339</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10">
         <v>30</v>
       </c>
       <c r="G17" s="6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="C18" t="s">
-        <v>301</v>
+        <v>330</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>30</v>
+      <c r="F18" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G18" s="6">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C19" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F19" s="10">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G19" s="6">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2087,22 +2156,22 @@
         <v>45609</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>30</v>
+      <c r="F20" s="10">
+        <v>28</v>
       </c>
       <c r="G20" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2110,42 +2179,42 @@
         <v>45609</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="C21" t="s">
-        <v>282</v>
+        <v>179</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F21" s="10">
-        <v>17</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.7</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>45607</v>
+        <v>45609</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F22" s="10">
-        <v>20</v>
+      <c r="F22" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="G22" s="6">
         <v>0.6</v>
@@ -2153,665 +2222,674 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>45303</v>
+        <v>45609</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>256</v>
+        <v>300</v>
+      </c>
+      <c r="C23" t="s">
+        <v>301</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="G23" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>247</v>
+        <v>313</v>
+      </c>
+      <c r="C24" t="s">
+        <v>314</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>248</v>
+      <c r="F24" s="10">
+        <v>28</v>
       </c>
       <c r="G24" s="6">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="C25" t="s">
-        <v>304</v>
+        <v>337</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>33</v>
+      <c r="F25" s="10">
+        <v>13</v>
       </c>
       <c r="G25" s="6">
-        <v>1.5</v>
+        <v>2</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>45588</v>
+        <v>45612</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>115</v>
+        <v>340</v>
+      </c>
+      <c r="C26" t="s">
+        <v>341</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F26" s="10">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="C27" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>280</v>
+      </c>
       <c r="F27" s="10">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.3</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>260</v>
+        <v>332</v>
+      </c>
+      <c r="C28" t="s">
+        <v>333</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="10">
-        <v>5</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>45607</v>
+        <v>45609</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="10">
-        <v>29</v>
-      </c>
-      <c r="H29" s="8">
-        <v>1</v>
+        <v>280</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>45607</v>
+        <v>45609</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>223</v>
+        <v>279</v>
+      </c>
+      <c r="C30" t="s">
+        <v>282</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E30" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>280</v>
+      </c>
       <c r="F30" s="10">
-        <v>9</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>225</v>
+        <v>17</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>45584</v>
+        <v>45607</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>159</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="F31" s="10">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G31" s="6">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>45617</v>
+        <v>45303</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="10">
-        <v>11</v>
+        <v>280</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="G32" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45608</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="10">
-        <v>6</v>
+        <v>280</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="G33" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>45608</v>
+        <v>45610</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>240</v>
+        <v>326</v>
+      </c>
+      <c r="C34" t="s">
+        <v>327</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="10">
-        <v>6</v>
+        <v>280</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="G34" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>45586</v>
+        <v>45609</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>29</v>
+        <v>303</v>
+      </c>
+      <c r="C35" t="s">
+        <v>304</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>30</v>
+        <v>280</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G35" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>45602</v>
+        <v>45588</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="F36" s="10">
-        <v>3</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>45607</v>
+        <v>45609</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>208</v>
+        <v>285</v>
+      </c>
+      <c r="C37" t="s">
+        <v>286</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>45590</v>
+        <v>45609</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>29</v>
+        <v>260</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E38" s="12"/>
       <c r="F38" s="10">
         <v>5</v>
       </c>
-      <c r="G38" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F39" s="10">
+        <v>29</v>
+      </c>
+      <c r="H39" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>45608</v>
+        <v>45607</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>38</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E40" s="12"/>
       <c r="F40" s="10">
-        <v>4</v>
-      </c>
-      <c r="G40" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>45602</v>
+        <v>45584</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>163</v>
+        <v>8</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F41" s="10">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G41" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>45607</v>
+        <v>45617</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F42" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G42" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>45588</v>
+        <v>45608</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F43" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G43" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45608</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C44" t="s">
-        <v>252</v>
+        <v>239</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>33</v>
+      <c r="F44" s="10">
+        <v>6</v>
       </c>
       <c r="G44" s="6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>194</v>
+        <v>71</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F45" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45602</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F46" s="10">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G46" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>45607</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F47" s="10">
-        <v>19</v>
+      <c r="F47" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G47" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45590</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>33</v>
+      <c r="F48" s="10">
+        <v>5</v>
       </c>
       <c r="G48" s="6">
-        <v>6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>45602</v>
+        <v>45586</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="10">
-        <v>25</v>
-      </c>
-      <c r="H49" s="8">
-        <v>1</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>145</v>
+      <c r="F49" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="6">
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F50" s="10">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G50" s="6">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>45588</v>
+        <v>45602</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F51" s="10">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G51" s="6">
-        <v>2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>73</v>
@@ -2820,10 +2898,10 @@
         <v>38</v>
       </c>
       <c r="F52" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G52" s="6">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -2831,45 +2909,45 @@
         <v>45588</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" t="s">
-        <v>95</v>
+        <v>125</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F53" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G53" s="6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>189</v>
+        <v>251</v>
+      </c>
+      <c r="C54" t="s">
+        <v>252</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="10">
-        <v>1</v>
+      <c r="F54" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G54" s="6">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -2877,22 +2955,19 @@
         <v>45607</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F55" s="10">
-        <v>23</v>
-      </c>
-      <c r="G55" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -2900,22 +2975,22 @@
         <v>45602</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F56" s="10">
-        <v>17</v>
-      </c>
-      <c r="H56" s="8">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.8</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -2923,84 +2998,91 @@
         <v>45607</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C57" t="s">
-        <v>215</v>
+        <v>205</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="F57" s="10">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G57" s="6">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>45607</v>
+        <v>45590</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F58" s="10">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G58" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>45588</v>
+        <v>45602</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F59" s="10">
-        <v>5</v>
-      </c>
-      <c r="G59" s="6">
-        <v>0.2</v>
+        <v>25</v>
+      </c>
+      <c r="H59" s="8">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>45608</v>
+        <v>45607</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="F60" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G60" s="6">
         <v>1</v>
@@ -3008,58 +3090,68 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>45608</v>
+        <v>45588</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E61" s="12"/>
+        <v>73</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="F61" s="10">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G61" s="6">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>45608</v>
+        <v>45586</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E62" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="F62" s="10">
         <v>2</v>
       </c>
-      <c r="I62" s="10">
-        <v>0</v>
+      <c r="G62" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>45609</v>
+        <v>45588</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>276</v>
+        <v>94</v>
+      </c>
+      <c r="C63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F63" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G63" s="6">
         <v>2</v>
@@ -3067,249 +3159,232 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="10">
+        <v>1</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" s="10">
+        <v>23</v>
+      </c>
+      <c r="G65" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>45602</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" s="10">
+        <v>17</v>
+      </c>
+      <c r="H66" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="10">
+        <v>24</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F68" s="10">
+        <v>8</v>
+      </c>
+      <c r="G68" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" s="10">
+        <v>5</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="10">
+        <v>14</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" s="12"/>
+      <c r="F71" s="10">
+        <v>1</v>
+      </c>
+      <c r="G71" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E72" s="12"/>
+      <c r="F72" s="10">
+        <v>2</v>
+      </c>
+      <c r="I72" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" s="10">
+        <v>9</v>
+      </c>
+      <c r="G73" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
         <v>45590</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B74" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C74" t="s">
         <v>135</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F64" s="10">
-        <v>8</v>
-      </c>
-      <c r="G64" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F65" s="10">
-        <v>10</v>
-      </c>
-      <c r="G65" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F66" s="10">
-        <v>9</v>
-      </c>
-      <c r="G66" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <v>45584</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F67" s="10">
-        <v>8</v>
-      </c>
-      <c r="G67" s="6">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" t="s">
-        <v>54</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F68" s="10">
-        <v>7</v>
-      </c>
-      <c r="G68" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F69" s="10">
-        <v>9</v>
-      </c>
-      <c r="G69" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F70" s="10">
-        <v>10</v>
-      </c>
-      <c r="G70" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" t="s">
-        <v>92</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F71" s="10">
-        <v>7</v>
-      </c>
-      <c r="G71" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" t="s">
-        <v>104</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F72" s="10">
-        <v>6</v>
-      </c>
-      <c r="G72" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C73" t="s">
-        <v>112</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F73" s="10">
-        <v>1</v>
-      </c>
-      <c r="G73" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C74" t="s">
-        <v>122</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>28</v>
@@ -3318,18 +3393,18 @@
         <v>8</v>
       </c>
       <c r="G74" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>45609</v>
+        <v>45588</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>299</v>
+        <v>113</v>
+      </c>
+      <c r="C75" t="s">
+        <v>116</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>20</v>
@@ -3338,21 +3413,21 @@
         <v>28</v>
       </c>
       <c r="F75" s="10">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G75" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>45607</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>18</v>
@@ -3361,21 +3436,21 @@
         <v>28</v>
       </c>
       <c r="F76" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G76" s="6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>45602</v>
+        <v>45584</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" t="s">
-        <v>157</v>
+        <v>15</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>18</v>
@@ -3384,67 +3459,67 @@
         <v>28</v>
       </c>
       <c r="F77" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G77" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>174</v>
+        <v>53</v>
+      </c>
+      <c r="C78" t="s">
+        <v>54</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F78" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G78" s="6">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>45586</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F79" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G79" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>45586</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>20</v>
@@ -3456,7 +3531,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -3464,22 +3539,22 @@
         <v>45588</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
+      </c>
+      <c r="C81" t="s">
+        <v>92</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F81" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G81" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -3487,13 +3562,13 @@
         <v>45588</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="C82" t="s">
+        <v>104</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>28</v>
@@ -3502,10 +3577,10 @@
         <v>6</v>
       </c>
       <c r="G82" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="H82" s="8">
-        <v>1</v>
+        <v>0.2</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -3513,10 +3588,10 @@
         <v>45588</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C83" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>18</v>
@@ -3525,10 +3600,10 @@
         <v>28</v>
       </c>
       <c r="F83" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G83" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -3536,79 +3611,79 @@
         <v>45588</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C84" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F84" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G84" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>45602</v>
+        <v>45609</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>146</v>
+        <v>298</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>147</v>
+        <v>299</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F85" s="10">
-        <v>10</v>
-      </c>
-      <c r="H85" s="8">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="G85" s="6">
+        <v>0.6</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C86" t="s">
-        <v>107</v>
+        <v>178</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F86" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G86" s="6">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>45586</v>
+        <v>45602</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>56</v>
+        <v>156</v>
+      </c>
+      <c r="C87" t="s">
+        <v>157</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>18</v>
@@ -3617,24 +3692,24 @@
         <v>28</v>
       </c>
       <c r="F87" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G87" s="6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>28</v>
@@ -3643,50 +3718,50 @@
         <v>8</v>
       </c>
       <c r="G88" s="6">
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F89" s="10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G89" s="6">
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="C90" t="s">
-        <v>221</v>
+        <v>63</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F90" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G90" s="6">
         <v>0.5</v>
@@ -3694,13 +3769,13 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C91" t="s">
-        <v>52</v>
+        <v>77</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>20</v>
@@ -3709,21 +3784,21 @@
         <v>28</v>
       </c>
       <c r="F91" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G91" s="6">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>18</v>
@@ -3732,21 +3807,24 @@
         <v>28</v>
       </c>
       <c r="F92" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G92" s="6">
-        <v>0.5</v>
+        <v>0.4</v>
+      </c>
+      <c r="H92" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>45602</v>
+        <v>45588</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>162</v>
+        <v>117</v>
+      </c>
+      <c r="C93" t="s">
+        <v>118</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>18</v>
@@ -3755,24 +3833,24 @@
         <v>28</v>
       </c>
       <c r="F93" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G93" s="6">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>45602</v>
+        <v>45588</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>28</v>
@@ -3789,10 +3867,10 @@
         <v>45602</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>18</v>
@@ -3801,116 +3879,113 @@
         <v>28</v>
       </c>
       <c r="F95" s="10">
-        <v>8</v>
-      </c>
-      <c r="G95" s="6">
-        <v>0.3</v>
+        <v>10</v>
+      </c>
+      <c r="H95" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>45590</v>
+        <v>45588</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F96" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G96" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>45590</v>
+        <v>45586</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C97" t="s">
-        <v>132</v>
+        <v>59</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F97" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G97" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>45584</v>
+        <v>45586</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F98" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G98" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>45584</v>
+        <v>45607</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F99" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G99" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>46</v>
+        <v>220</v>
+      </c>
+      <c r="C100" t="s">
+        <v>221</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>18</v>
@@ -3919,44 +3994,44 @@
         <v>28</v>
       </c>
       <c r="F100" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G100" s="6">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>45586</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F101" s="10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G101" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C102" t="s">
-        <v>187</v>
+        <v>61</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>18</v>
@@ -3965,44 +4040,44 @@
         <v>28</v>
       </c>
       <c r="F102" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G102" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>45607</v>
+        <v>45602</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F103" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G103" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>45607</v>
+        <v>45602</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>198</v>
+        <v>158</v>
+      </c>
+      <c r="C104" t="s">
+        <v>159</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>18</v>
@@ -4011,195 +4086,224 @@
         <v>28</v>
       </c>
       <c r="F104" s="10">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G104" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>45607</v>
+        <v>45602</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C105" t="s">
-        <v>204</v>
+        <v>148</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E105" s="12"/>
+      <c r="E105" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F105" s="10">
-        <v>4</v>
+        <f>8+29</f>
+        <v>37</v>
       </c>
       <c r="G105" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>45609</v>
+        <v>45590</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E106" s="12"/>
+        <v>136</v>
+      </c>
+      <c r="C106" t="s">
+        <v>137</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F106" s="10">
         <v>5</v>
       </c>
       <c r="G106" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>45590</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C107" t="s">
+        <v>132</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" s="10">
+        <v>8</v>
+      </c>
+      <c r="G107" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <v>45584</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" s="10">
+        <v>7</v>
+      </c>
+      <c r="G108" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>45584</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" s="10">
+        <v>10</v>
+      </c>
+      <c r="G109" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="4">
-        <v>45609</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F107" s="10">
-        <v>1</v>
-      </c>
-      <c r="H107" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E108" s="12"/>
-      <c r="F108" s="10">
-        <v>3</v>
-      </c>
-      <c r="I108" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="4">
-        <v>45609</v>
-      </c>
-      <c r="B109" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E109" s="12"/>
-      <c r="F109" s="10">
-        <v>3</v>
-      </c>
-      <c r="H109" s="8">
-        <v>1</v>
-      </c>
-      <c r="I109" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>45609</v>
+        <v>45586</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F110" s="10">
         <v>9</v>
       </c>
       <c r="G110" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>45588</v>
+        <v>45586</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="C111" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F111" s="10">
-        <v>17</v>
-      </c>
-      <c r="H111" s="8">
+        <v>10</v>
+      </c>
+      <c r="G111" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>11</v>
+        <v>186</v>
+      </c>
+      <c r="C112" t="s">
+        <v>187</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F112" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G112" s="6">
-        <v>20</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>45608</v>
+        <v>45607</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C113" t="s">
-        <v>258</v>
+        <v>169</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E113" s="12"/>
+        <v>170</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F113" s="10">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G113" s="6">
         <v>2</v>
@@ -4207,20 +4311,22 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E114" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F114" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G114" s="6">
         <v>0.4</v>
@@ -4228,22 +4334,20 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>44</v>
+        <v>203</v>
+      </c>
+      <c r="C115" t="s">
+        <v>204</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>40</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E115" s="12"/>
       <c r="F115" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G115" s="6">
         <v>1</v>
@@ -4251,350 +4355,332 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>45588</v>
+        <v>45609</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C116" t="s">
-        <v>82</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>40</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E116" s="12"/>
       <c r="F116" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G116" s="6">
-        <v>0.35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>45602</v>
+        <v>45609</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>152</v>
+        <v>271</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F117" s="10">
-        <v>4</v>
-      </c>
-      <c r="G117" s="6">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="H117" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>45584</v>
+        <v>45608</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="E118" s="12"/>
       <c r="F118" s="10">
         <v>3</v>
       </c>
-      <c r="G118" s="6">
-        <v>1</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>24</v>
+      <c r="I118" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>45607</v>
+        <v>45609</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C119" t="s">
-        <v>181</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>38</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E119" s="12"/>
       <c r="F119" s="10">
+        <v>3</v>
+      </c>
+      <c r="H119" s="8">
         <v>1</v>
       </c>
-      <c r="G119" s="6">
-        <v>0.2</v>
+      <c r="I119" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>45607</v>
+        <v>45609</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E120" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="F120" s="10">
-        <v>7</v>
-      </c>
-      <c r="H120" s="8">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="G120" s="6">
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>45607</v>
+        <v>45588</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>108</v>
+      </c>
+      <c r="C121" t="s">
+        <v>109</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F121" s="10">
-        <v>3</v>
-      </c>
-      <c r="G121" s="6">
-        <v>0.8</v>
+        <v>17</v>
+      </c>
+      <c r="H121" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>45588</v>
+        <v>45586</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C122" t="s">
-        <v>84</v>
+        <v>39</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F122" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G122" s="6">
-        <v>1.3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="C123" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>38</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E123" s="12"/>
       <c r="F123" s="10">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G123" s="6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>45609</v>
+        <v>45586</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>289</v>
+        <v>48</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E124" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="E124" s="12"/>
       <c r="F124" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G124" s="6">
-        <v>5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>45609</v>
+        <v>45586</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>292</v>
+        <v>43</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>293</v>
+        <v>44</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E125" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="F125" s="10">
-        <v>3</v>
-      </c>
-      <c r="H125" s="8">
+        <v>5</v>
+      </c>
+      <c r="G125" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>45607</v>
+        <v>45588</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>218</v>
+        <v>81</v>
+      </c>
+      <c r="C126" t="s">
+        <v>82</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E126" s="12"/>
+      <c r="E126" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="F126" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>219</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>45608</v>
+        <v>45602</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F127" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G127" s="6">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>45608</v>
+        <v>45584</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E128" s="12" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E128" s="12"/>
       <c r="F128" s="10">
         <v>3</v>
       </c>
       <c r="G128" s="6">
-        <v>4</v>
-      </c>
-      <c r="H128" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K128" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>45607</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F129" s="10">
+        <v>1</v>
+      </c>
+      <c r="G129" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130" s="12"/>
+      <c r="F130" s="10">
         <v>7</v>
       </c>
-      <c r="G129" s="6">
+      <c r="H130" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C130" t="s">
-        <v>86</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E130" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F130" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>45609</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>267</v>
+        <v>45607</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>11</v>
@@ -4606,64 +4692,64 @@
         <v>40</v>
       </c>
       <c r="F131" s="10">
-        <v>5</v>
-      </c>
-      <c r="H131" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G131" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>11</v>
+        <v>83</v>
+      </c>
+      <c r="C132" t="s">
+        <v>84</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F132" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="F132" s="10">
+        <v>6</v>
       </c>
       <c r="G132" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>45609</v>
+        <v>45607</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>211</v>
+      </c>
+      <c r="C133" t="s">
+        <v>212</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F133" s="10">
-        <v>9</v>
-      </c>
-      <c r="H133" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="G133" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>45588</v>
+        <v>45612</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>123</v>
+        <v>347</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>124</v>
@@ -4673,198 +4759,196 @@
       </c>
       <c r="E134" s="12"/>
       <c r="F134" s="10">
-        <v>10</v>
-      </c>
-      <c r="G134" s="6">
-        <v>15</v>
-      </c>
-      <c r="I134" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>45609</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E135" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="F135" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G135" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E136" s="12"/>
       <c r="F136" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G136" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>45609</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>124</v>
+        <v>293</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>18</v>
+        <v>263</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="10">
-        <v>13</v>
-      </c>
-      <c r="I137" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H137" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C138" t="s">
-        <v>91</v>
+        <v>217</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E138" s="12" t="s">
-        <v>90</v>
-      </c>
+      <c r="E138" s="12"/>
       <c r="F138" s="10">
         <v>2</v>
       </c>
       <c r="G138" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.75</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
-        <v>45609</v>
+        <v>45608</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="C139" t="s">
-        <v>278</v>
+        <v>244</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F139" s="10">
         <v>8</v>
       </c>
       <c r="G139" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F140" s="10">
+        <v>3</v>
+      </c>
+      <c r="G140" s="6">
+        <v>4</v>
+      </c>
+      <c r="H140" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="4">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="4">
         <v>45607</v>
       </c>
-      <c r="B140" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C140" t="s">
-        <v>202</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E140" s="12"/>
-      <c r="F140" s="10">
-        <v>9</v>
-      </c>
-      <c r="G140" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" s="4">
-        <v>45584</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>11</v>
+      <c r="B141" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C141" t="s">
+        <v>210</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F141" s="10">
+        <v>7</v>
+      </c>
+      <c r="G141" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C142" t="s">
+        <v>86</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F142" s="10">
         <v>4</v>
       </c>
-      <c r="G141" s="6">
-        <v>3</v>
-      </c>
-      <c r="H141" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="4">
-        <v>45609</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E142" s="12"/>
-      <c r="F142" s="10">
-        <v>9</v>
-      </c>
-      <c r="G142" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>45609</v>
       </c>
-      <c r="B143" s="12" t="s">
-        <v>284</v>
+      <c r="B143" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>11</v>
@@ -4876,30 +4960,33 @@
         <v>40</v>
       </c>
       <c r="F143" s="10">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H143" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C144" t="s">
-        <v>196</v>
+        <v>31</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F144" s="10">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G144" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -4907,17 +4994,19 @@
         <v>45609</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C145" t="s">
-        <v>262</v>
+        <v>290</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E145" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="F145" s="10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H145" s="8">
         <v>1</v>
@@ -4925,275 +5014,263 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
-        <v>45608</v>
+        <v>45588</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E146" s="12" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E146" s="12"/>
       <c r="F146" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G146" s="6">
-        <v>0.9</v>
+        <v>15</v>
+      </c>
+      <c r="I146" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
-        <v>45586</v>
+        <v>45609</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>66</v>
+        <v>265</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E147" s="12" t="s">
-        <v>38</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="E147" s="12"/>
       <c r="F147" s="10">
         <v>1</v>
       </c>
       <c r="G147" s="6">
-        <v>0.75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E148" s="12" t="s">
-        <v>38</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E148" s="12"/>
       <c r="F148" s="10">
-        <v>4</v>
-      </c>
-      <c r="H148" s="8">
+        <v>12</v>
+      </c>
+      <c r="G148" s="6">
         <v>1</v>
-      </c>
-      <c r="I148" s="10">
-        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E149" s="12" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E149" s="12"/>
       <c r="F149" s="10">
-        <v>1</v>
-      </c>
-      <c r="G149" s="6">
-        <v>2.5</v>
+        <v>13</v>
+      </c>
+      <c r="I149" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
-        <v>45610</v>
+        <v>45588</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>323</v>
+        <v>89</v>
+      </c>
+      <c r="C150" t="s">
+        <v>91</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="F150" s="10">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G150" s="6">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
-        <v>45610</v>
+        <v>45609</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>325</v>
+        <v>277</v>
+      </c>
+      <c r="C151" t="s">
+        <v>278</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E151" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="F151" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G151" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
-        <v>45610</v>
+        <v>45607</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>326</v>
+        <v>201</v>
       </c>
       <c r="C152" t="s">
-        <v>327</v>
+        <v>202</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E152" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>30</v>
+        <v>106</v>
+      </c>
+      <c r="E152" s="12"/>
+      <c r="F152" s="10">
+        <v>9</v>
       </c>
       <c r="G152" s="6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
-        <v>45610</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="C153" t="s">
-        <v>329</v>
+        <v>45584</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="F153" s="10">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G153" s="6">
-        <v>0.7</v>
+        <v>3</v>
+      </c>
+      <c r="H153" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
-        <v>45610</v>
+        <v>45609</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E154" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F154" s="10" t="s">
-        <v>33</v>
+      <c r="E154" s="12"/>
+      <c r="F154" s="10">
+        <v>9</v>
       </c>
       <c r="G154" s="6">
-        <v>0.8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
-        <v>45610</v>
+        <v>45609</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="C155" t="s">
-        <v>333</v>
+        <v>284</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="F155" s="10">
-        <v>8</v>
-      </c>
-      <c r="G155" s="6">
-        <v>0.3</v>
+        <v>13</v>
+      </c>
+      <c r="H155" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
-        <v>45610</v>
+        <v>45607</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>334</v>
+        <v>195</v>
       </c>
       <c r="C156" t="s">
-        <v>335</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="F156" s="10">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G156" s="6">
-        <v>0.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
-        <v>45610</v>
+        <v>45609</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>336</v>
+        <v>261</v>
+      </c>
+      <c r="C157" t="s">
+        <v>262</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E157" s="12" t="s">
-        <v>280</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E157" s="12"/>
       <c r="F157" s="10">
-        <v>13</v>
-      </c>
-      <c r="G157" s="6">
         <v>2</v>
       </c>
       <c r="H157" s="8">
@@ -5202,25 +5279,242 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
-        <v>45610</v>
+        <v>45608</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="C158" t="s">
-        <v>339</v>
+        <v>228</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F158" s="10">
+        <v>4</v>
+      </c>
+      <c r="G158" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F159" s="10">
+        <v>1</v>
+      </c>
+      <c r="G159" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F160" s="10">
+        <v>4</v>
+      </c>
+      <c r="H160" s="8">
+        <v>1</v>
+      </c>
+      <c r="I160" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F161" s="10">
+        <v>1</v>
+      </c>
+      <c r="G161" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="4">
+        <v>45612</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C162" t="s">
+        <v>349</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E158" s="12" t="s">
+      <c r="E162" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F158" s="10">
-        <v>30</v>
-      </c>
-      <c r="G158" s="6">
-        <v>0.5</v>
+      <c r="F162" s="10">
+        <v>19</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="4">
+        <v>45612</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C163" t="s">
+        <v>352</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
+        <v>45612</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164" s="12"/>
+      <c r="F164" s="10">
+        <v>1</v>
+      </c>
+      <c r="G164" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>45612</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165" s="12"/>
+      <c r="F165" s="10">
+        <v>3</v>
+      </c>
+      <c r="G165" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>45612</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="12"/>
+      <c r="F166" s="10">
+        <v>1</v>
+      </c>
+      <c r="G166" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="4">
+        <v>45612</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" s="12"/>
+      <c r="F167" s="10">
+        <v>3</v>
+      </c>
+      <c r="G167" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="4">
+        <v>45612</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E168" s="12"/>
+      <c r="F168" s="10">
+        <v>1</v>
+      </c>
+      <c r="G168" s="6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/inventory.xlsx
+++ b/src/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Erik\Persoonlijk\component-inventory\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBCA855-AC59-483B-85F6-6097E6576CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52043C08-F85A-4E54-8B45-E8C96C56F574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25670" yWindow="-4240" windowWidth="28770" windowHeight="17630" xr2:uid="{7B4DE2BE-437B-4368-A10E-354E74019CAE}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="384">
   <si>
     <t>What (ID)</t>
   </si>
@@ -1200,6 +1200,69 @@
   </si>
   <si>
     <t>Triple OpAmp Emitter-follower Output</t>
+  </si>
+  <si>
+    <t>74HC174</t>
+  </si>
+  <si>
+    <t>Hex D-type flip-flop with reset; positive-edge trigger</t>
+  </si>
+  <si>
+    <t>74HC27</t>
+  </si>
+  <si>
+    <t>74HC06</t>
+  </si>
+  <si>
+    <t>Hex Inverter Buffers and Drivers With Open-Collector High-Voltage Outputs</t>
+  </si>
+  <si>
+    <t>74HC192</t>
+  </si>
+  <si>
+    <t>Presettable Synchronous 4-Bit Up/Down Counters (BCD &amp; BInary)</t>
+  </si>
+  <si>
+    <t>74HC244</t>
+  </si>
+  <si>
+    <t>Octal 3-state noninverting buffer/line driver/line receiver</t>
+  </si>
+  <si>
+    <t>74HC00</t>
+  </si>
+  <si>
+    <t>Quadruple 2-input NAND gates</t>
+  </si>
+  <si>
+    <t>74HC153</t>
+  </si>
+  <si>
+    <t>Dual 4-input multiplexer</t>
+  </si>
+  <si>
+    <t>74HC32</t>
+  </si>
+  <si>
+    <t>Quadruple 2-input OR gates</t>
+  </si>
+  <si>
+    <t>74HC161</t>
+  </si>
+  <si>
+    <t>Presettable synchronous 4-bit binary counter; asynchronous reset</t>
+  </si>
+  <si>
+    <t>74HC02</t>
+  </si>
+  <si>
+    <t>Quad 2−Input NOR Gate</t>
+  </si>
+  <si>
+    <t>74HC175</t>
+  </si>
+  <si>
+    <t>Quad D-type flip-flop with reset; positive-edge trigger</t>
   </si>
 </sst>
 </file>
@@ -1399,10 +1462,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A3:K168" totalsRowShown="0">
-  <autoFilter ref="A3:K168" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K161">
-    <sortCondition ref="B3:B161"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A3:K179" totalsRowShown="0">
+  <autoFilter ref="A3:K179" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K179">
+    <sortCondition ref="B3:B179"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{C4F97701-1496-46B7-9BA9-0E2C3EE5AEE8}" name="Date entered" dataDxfId="10"/>
@@ -1738,17 +1801,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E1E352-0B9B-45A5-97A3-5920624A3ECD}">
-  <dimension ref="A3:K168"/>
+  <dimension ref="A3:K179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169:XFD169"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="61.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" style="10" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" style="6" customWidth="1"/>
@@ -1946,13 +2007,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>45609</v>
+        <v>45612</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>311</v>
+        <v>372</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>312</v>
+        <v>373</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
@@ -1960,22 +2021,19 @@
       <c r="E11" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F11" s="10">
-        <v>26</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.9</v>
+      <c r="F11" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>45609</v>
+        <v>45612</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>315</v>
+        <v>380</v>
       </c>
       <c r="C12" t="s">
-        <v>316</v>
+        <v>381</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
@@ -1985,9 +2043,6 @@
       </c>
       <c r="F12" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1995,10 +2050,10 @@
         <v>45609</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>312</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -2007,21 +2062,21 @@
         <v>280</v>
       </c>
       <c r="F13" s="10">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G13" s="6">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>45610</v>
+        <v>45612</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>323</v>
+        <v>366</v>
+      </c>
+      <c r="C14" t="s">
+        <v>367</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
@@ -2030,24 +2085,21 @@
         <v>280</v>
       </c>
       <c r="F14" s="10">
-        <v>19</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>45612</v>
+        <v>45609</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="C15" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>280</v>
@@ -2055,8 +2107,8 @@
       <c r="F15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>345</v>
+      <c r="G15" s="6">
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2064,10 +2116,10 @@
         <v>45609</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="C16" t="s">
-        <v>297</v>
+        <v>310</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
@@ -2076,10 +2128,10 @@
         <v>280</v>
       </c>
       <c r="F16" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" s="6">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2087,33 +2139,33 @@
         <v>45610</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="C17" t="s">
-        <v>339</v>
+        <v>322</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F17" s="10">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G17" s="6">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>45610</v>
+        <v>45612</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>331</v>
+        <v>343</v>
+      </c>
+      <c r="C18" t="s">
+        <v>344</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -2124,31 +2176,28 @@
       <c r="F18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="6">
-        <v>0.8</v>
+      <c r="K18" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>45610</v>
+        <v>45612</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="C19" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F19" s="10">
-        <v>17</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0.7</v>
+      <c r="F19" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2156,19 +2205,19 @@
         <v>45609</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
+      </c>
+      <c r="C20" t="s">
+        <v>297</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F20" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G20" s="6">
         <v>0.7</v>
@@ -2176,13 +2225,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>339</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>18</v>
@@ -2191,79 +2240,73 @@
         <v>280</v>
       </c>
       <c r="F21" s="10">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G21" s="6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>45609</v>
+        <v>45612</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>295</v>
+        <v>374</v>
+      </c>
+      <c r="C22" t="s">
+        <v>375</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0.6</v>
+      <c r="F22" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>45609</v>
+        <v>45612</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="C23" t="s">
-        <v>301</v>
+        <v>379</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="10">
         <v>30</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C24" t="s">
-        <v>314</v>
+        <v>330</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F24" s="10">
-        <v>28</v>
+      <c r="F24" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G24" s="6">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2271,36 +2314,33 @@
         <v>45610</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
+      </c>
+      <c r="C25" t="s">
+        <v>329</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F25" s="10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G25" s="6">
-        <v>2</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>45612</v>
+        <v>45609</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C26" t="s">
-        <v>341</v>
+        <v>305</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>18</v>
@@ -2309,85 +2349,70 @@
         <v>280</v>
       </c>
       <c r="F26" s="10">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G26" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>346</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>45610</v>
+        <v>45612</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="C27" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F27" s="10">
-        <v>23</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0.3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>45610</v>
+        <v>45612</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="C28" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>342</v>
+      <c r="F28" s="10">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>45609</v>
+        <v>45612</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>309</v>
+        <v>368</v>
+      </c>
+      <c r="C29" t="s">
+        <v>369</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="10">
         <v>30</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2395,42 +2420,42 @@
         <v>45609</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="C30" t="s">
-        <v>282</v>
+        <v>179</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F30" s="10">
-        <v>17</v>
-      </c>
-      <c r="H30" s="8">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.7</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>45607</v>
+        <v>45609</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F31" s="10">
-        <v>20</v>
+      <c r="F31" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="G31" s="6">
         <v>0.6</v>
@@ -2438,447 +2463,452 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>45303</v>
+        <v>45609</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>256</v>
+        <v>300</v>
+      </c>
+      <c r="C32" t="s">
+        <v>301</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>280</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="G32" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="H32" s="8">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>45608</v>
+        <v>45612</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>247</v>
+        <v>348</v>
+      </c>
+      <c r="C33" t="s">
+        <v>349</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G33" s="6">
-        <v>1.4</v>
+      <c r="F33" s="10">
+        <v>19</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>45610</v>
+        <v>45609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C34" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>30</v>
+      <c r="F34" s="10">
+        <v>28</v>
       </c>
       <c r="G34" s="6">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>45609</v>
+        <v>45612</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="C35" t="s">
-        <v>304</v>
+        <v>370</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="6">
-        <v>1.5</v>
+      <c r="F35" s="10">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>45588</v>
+        <v>45610</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>114</v>
+        <v>337</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>115</v>
+        <v>336</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F36" s="10">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="G36" s="6">
+        <v>2</v>
+      </c>
+      <c r="H36" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>45609</v>
+        <v>45612</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="C37" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>280</v>
+      </c>
       <c r="F37" s="10">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>45609</v>
+        <v>45612</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>259</v>
+        <v>365</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>280</v>
+      </c>
       <c r="F38" s="10">
-        <v>5</v>
-      </c>
-      <c r="H38" s="8">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>45607</v>
+        <v>45610</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>334</v>
+      </c>
+      <c r="C39" t="s">
+        <v>335</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="F39" s="10">
-        <v>29</v>
-      </c>
-      <c r="H39" s="8">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.3</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>45607</v>
+        <v>45610</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>223</v>
+        <v>332</v>
+      </c>
+      <c r="C40" t="s">
+        <v>333</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="10">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.3</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>225</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>45584</v>
+        <v>45612</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>8</v>
+        <v>376</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="F41" s="10">
-        <v>7</v>
-      </c>
-      <c r="G41" s="6">
-        <v>2.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>45617</v>
+        <v>45609</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>154</v>
+        <v>309</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F42" s="10">
-        <v>11</v>
+        <v>280</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="G42" s="6">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>238</v>
+        <v>279</v>
+      </c>
+      <c r="C43" t="s">
+        <v>282</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="F43" s="10">
-        <v>6</v>
-      </c>
-      <c r="G43" s="6">
-        <v>0.6</v>
+        <v>17</v>
+      </c>
+      <c r="H43" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>45608</v>
+        <v>45607</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>240</v>
+        <v>159</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="F44" s="10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G44" s="6">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>45586</v>
+        <v>45303</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="G45" s="6">
-        <v>0.1</v>
+        <v>0.8</v>
+      </c>
+      <c r="H45" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>45602</v>
+        <v>45608</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="10">
-        <v>3</v>
+        <v>280</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="G46" s="6">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>45607</v>
+        <v>45610</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>208</v>
+        <v>326</v>
+      </c>
+      <c r="C47" t="s">
+        <v>327</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>33</v>
+        <v>280</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="G47" s="6">
-        <v>0.05</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>45590</v>
+        <v>45609</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>29</v>
+        <v>303</v>
+      </c>
+      <c r="C48" t="s">
+        <v>304</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" s="10">
-        <v>5</v>
+        <v>280</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G48" s="6">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="6">
-        <v>17</v>
+        <v>281</v>
+      </c>
+      <c r="F49" s="10">
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>29</v>
+        <v>285</v>
+      </c>
+      <c r="C50" t="s">
+        <v>286</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>38</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E50" s="12"/>
       <c r="F50" s="10">
-        <v>4</v>
-      </c>
-      <c r="G50" s="6">
-        <v>0.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>45602</v>
+        <v>45609</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E51" s="12"/>
       <c r="F51" s="10">
-        <v>14</v>
-      </c>
-      <c r="G51" s="6">
-        <v>0.4</v>
+        <v>5</v>
+      </c>
+      <c r="H51" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -2886,157 +2916,155 @@
         <v>45607</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F52" s="10">
-        <v>5</v>
-      </c>
-      <c r="G52" s="6">
-        <v>0.3</v>
+        <v>29</v>
+      </c>
+      <c r="H52" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>127</v>
+        <v>223</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>38</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E53" s="12"/>
       <c r="F53" s="10">
-        <v>3</v>
-      </c>
-      <c r="G53" s="6">
-        <v>0.5</v>
+        <v>9</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>45608</v>
+        <v>45584</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" t="s">
-        <v>252</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>126</v>
+        <v>8</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>33</v>
+      <c r="F54" s="10">
+        <v>7</v>
       </c>
       <c r="G54" s="6">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>45607</v>
+        <v>45617</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F55" s="10">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.4</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>45602</v>
+        <v>45608</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F56" s="10">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G56" s="6">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F57" s="10">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G57" s="6">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>45590</v>
+        <v>45586</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>33</v>
+      <c r="F58" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="G58" s="6">
-        <v>6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -3044,25 +3072,22 @@
         <v>45602</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F59" s="10">
-        <v>25</v>
-      </c>
-      <c r="H59" s="8">
-        <v>1</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>145</v>
+        <v>3</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.1</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -3070,45 +3095,45 @@
         <v>45607</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F60" s="10">
-        <v>15</v>
+      <c r="F60" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G60" s="6">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>45588</v>
+        <v>45590</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F61" s="10">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G61" s="6">
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3116,445 +3141,457 @@
         <v>45586</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="10">
-        <v>2</v>
+      <c r="F62" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G62" s="6">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>45588</v>
+        <v>45608</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" t="s">
-        <v>95</v>
+        <v>236</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F63" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G63" s="6">
-        <v>2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>45607</v>
+        <v>45602</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F64" s="10">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G64" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>45607</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F65" s="10">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G65" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>45602</v>
+        <v>45588</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F66" s="10">
-        <v>17</v>
-      </c>
-      <c r="H66" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="C67" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="10">
-        <v>24</v>
+        <v>126</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G67" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>45607</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="F68" s="10">
-        <v>8</v>
-      </c>
-      <c r="G68" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>45588</v>
+        <v>45602</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F69" s="10">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G69" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>45608</v>
+        <v>45607</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="F70" s="10">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G70" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>45590</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>45602</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="10">
+        <v>25</v>
+      </c>
+      <c r="H72" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="10">
-        <v>1</v>
-      </c>
-      <c r="G71" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="10">
-        <v>2</v>
-      </c>
-      <c r="I72" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K72" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>45609</v>
+        <v>45607</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>276</v>
+        <v>191</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F73" s="10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" s="10">
+        <v>18</v>
+      </c>
+      <c r="G74" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
-        <v>45590</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" t="s">
-        <v>135</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F74" s="10">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" s="10">
+        <v>2</v>
+      </c>
+      <c r="G75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="10">
         <v>8</v>
       </c>
-      <c r="G74" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
-        <v>45588</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C75" t="s">
-        <v>116</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F75" s="10">
-        <v>10</v>
-      </c>
-      <c r="G75" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="4">
+      <c r="G76" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
         <v>45607</v>
       </c>
-      <c r="B76" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F76" s="10">
-        <v>9</v>
-      </c>
-      <c r="G76" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
-        <v>45584</v>
-      </c>
       <c r="B77" s="12" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F77" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G77" s="6">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" t="s">
-        <v>54</v>
+        <v>175</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F78" s="10">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G78" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>45586</v>
+        <v>45602</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F79" s="10">
-        <v>9</v>
-      </c>
-      <c r="G79" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H79" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>70</v>
+        <v>214</v>
+      </c>
+      <c r="C80" t="s">
+        <v>215</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E80" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="E80" s="12"/>
       <c r="F80" s="10">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G80" s="6">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" t="s">
-        <v>92</v>
+        <v>166</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="F81" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G81" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -3562,174 +3599,159 @@
         <v>45588</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C82" t="s">
-        <v>104</v>
+        <v>87</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F82" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G82" s="6">
         <v>0.2</v>
       </c>
-      <c r="K82" s="2" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>45588</v>
+        <v>45608</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C83" t="s">
-        <v>112</v>
+        <v>242</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="E83" s="12"/>
       <c r="F83" s="10">
+        <v>14</v>
+      </c>
+      <c r="G83" s="6">
         <v>1</v>
-      </c>
-      <c r="G83" s="6">
-        <v>0.5</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>45588</v>
+        <v>45608</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C84" t="s">
-        <v>122</v>
+        <v>226</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>28</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E84" s="12"/>
       <c r="F84" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G84" s="6">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>45609</v>
+        <v>45608</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>298</v>
+        <v>232</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>28</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="E85" s="12"/>
       <c r="F85" s="10">
-        <v>21</v>
-      </c>
-      <c r="G85" s="6">
-        <v>0.6</v>
+        <v>2</v>
+      </c>
+      <c r="I85" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>45607</v>
+        <v>45609</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>178</v>
+        <v>275</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F86" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G86" s="6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>45602</v>
+        <v>45590</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C87" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F87" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G87" s="6">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>45607</v>
+        <v>45588</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>174</v>
+        <v>113</v>
+      </c>
+      <c r="C88" t="s">
+        <v>116</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F88" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G88" s="6">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>55</v>
+        <v>199</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>18</v>
@@ -3738,44 +3760,44 @@
         <v>28</v>
       </c>
       <c r="F89" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G89" s="6">
-        <v>6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>45586</v>
+        <v>45584</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F90" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G90" s="6">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>45588</v>
+        <v>45586</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
+      </c>
+      <c r="C91" t="s">
+        <v>54</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>20</v>
@@ -3784,50 +3806,47 @@
         <v>28</v>
       </c>
       <c r="F91" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G91" s="6">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>45588</v>
+        <v>45586</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F92" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G92" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="H92" s="8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>45588</v>
+        <v>45586</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C93" t="s">
-        <v>118</v>
+        <v>69</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>28</v>
@@ -3836,7 +3855,7 @@
         <v>10</v>
       </c>
       <c r="G93" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -3844,19 +3863,19 @@
         <v>45588</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F94" s="10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G94" s="6">
         <v>0.5</v>
@@ -3864,25 +3883,28 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>45602</v>
+        <v>45588</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>147</v>
+        <v>103</v>
+      </c>
+      <c r="C95" t="s">
+        <v>104</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F95" s="10">
-        <v>10</v>
-      </c>
-      <c r="H95" s="8">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="G95" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -3890,33 +3912,33 @@
         <v>45588</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C96" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F96" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G96" s="6">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
+      </c>
+      <c r="C97" t="s">
+        <v>122</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>18</v>
@@ -3925,67 +3947,67 @@
         <v>28</v>
       </c>
       <c r="F97" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G97" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>45586</v>
+        <v>45609</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>59</v>
+        <v>298</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>68</v>
+        <v>299</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F98" s="10">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G98" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>45607</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F99" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G99" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>45607</v>
+        <v>45602</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="C100" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>18</v>
@@ -3994,44 +4016,44 @@
         <v>28</v>
       </c>
       <c r="F100" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G100" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C101" t="s">
-        <v>52</v>
+        <v>172</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F101" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G101" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>45586</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>18</v>
@@ -4040,70 +4062,67 @@
         <v>28</v>
       </c>
       <c r="F102" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G102" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>45602</v>
+        <v>45586</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F103" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G103" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>45602</v>
+        <v>45588</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C104" t="s">
-        <v>159</v>
+        <v>77</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F104" s="10">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G104" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>45602</v>
+        <v>45588</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>18</v>
@@ -4112,51 +4131,47 @@
         <v>28</v>
       </c>
       <c r="F105" s="10">
-        <f>8+29</f>
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="G105" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+      <c r="H105" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>45590</v>
+        <v>45588</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C106" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F106" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G106" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>45590</v>
+        <v>45588</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C107" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>20</v>
@@ -4165,67 +4180,67 @@
         <v>28</v>
       </c>
       <c r="F107" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G107" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>45584</v>
+        <v>45602</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F108" s="10">
-        <v>7</v>
-      </c>
-      <c r="G108" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H108" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>45584</v>
+        <v>45588</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>26</v>
+        <v>105</v>
+      </c>
+      <c r="C109" t="s">
+        <v>107</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F109" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G109" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>45586</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>18</v>
@@ -4237,18 +4252,18 @@
         <v>9</v>
       </c>
       <c r="G110" s="6">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>45586</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C111" t="s">
-        <v>35</v>
+        <v>59</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>18</v>
@@ -4257,33 +4272,33 @@
         <v>28</v>
       </c>
       <c r="F111" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G111" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>45607</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C112" t="s">
-        <v>187</v>
+        <v>182</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F112" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G112" s="6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -4291,233 +4306,270 @@
         <v>45607</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>171</v>
+        <v>220</v>
+      </c>
+      <c r="C113" t="s">
+        <v>221</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F113" s="10">
-        <v>5</v>
+        <f>27</f>
+        <v>27</v>
       </c>
       <c r="G113" s="6">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>198</v>
+        <v>51</v>
+      </c>
+      <c r="C114" t="s">
+        <v>52</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F114" s="10">
-        <v>10</v>
+        <f>7+35</f>
+        <v>42</v>
       </c>
       <c r="G114" s="6">
-        <v>0.4</v>
+        <v>0.3</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C115" t="s">
-        <v>204</v>
+        <v>61</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E115" s="12"/>
+      <c r="E115" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F115" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G115" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>45609</v>
+        <v>45602</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>268</v>
+        <v>161</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E116" s="12"/>
+        <v>162</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F116" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G116" s="6">
-        <v>5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>45609</v>
+        <v>45602</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>271</v>
+        <v>158</v>
+      </c>
+      <c r="C117" t="s">
+        <v>159</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F117" s="10">
-        <v>1</v>
-      </c>
-      <c r="H117" s="8">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="G117" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>45608</v>
+        <v>45602</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E118" s="12"/>
+        <v>149</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F118" s="10">
-        <v>3</v>
-      </c>
-      <c r="I118" s="10">
-        <v>0</v>
+        <f>8+29</f>
+        <v>37</v>
+      </c>
+      <c r="G118" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>45609</v>
+        <v>45590</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E119" s="12"/>
+        <v>136</v>
+      </c>
+      <c r="C119" t="s">
+        <v>137</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F119" s="10">
-        <v>3</v>
-      </c>
-      <c r="H119" s="8">
-        <v>1</v>
-      </c>
-      <c r="I119" s="10">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G119" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>45609</v>
+        <v>45590</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>131</v>
+      </c>
+      <c r="C120" t="s">
+        <v>132</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F120" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G120" s="6">
-        <v>25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>45588</v>
+        <v>45584</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C121" t="s">
-        <v>109</v>
+        <v>13</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F121" s="10">
-        <v>17</v>
-      </c>
-      <c r="H121" s="8">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="G121" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>45586</v>
+        <v>45584</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F122" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G122" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>45608</v>
+        <v>45586</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C123" t="s">
-        <v>258</v>
+        <v>45</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E123" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F123" s="10">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G123" s="6">
-        <v>2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
@@ -4525,151 +4577,150 @@
         <v>45586</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="C124" t="s">
+        <v>35</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E124" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F124" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G124" s="6">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>44</v>
+        <v>186</v>
+      </c>
+      <c r="C125" t="s">
+        <v>187</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F125" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G125" s="6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C126" t="s">
-        <v>82</v>
+        <v>169</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F126" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G126" s="6">
-        <v>0.35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>45602</v>
+        <v>45607</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>321</v>
+        <v>197</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>152</v>
+        <v>198</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F127" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G127" s="6">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>45584</v>
+        <v>45607</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>23</v>
+        <v>203</v>
+      </c>
+      <c r="C128" t="s">
+        <v>204</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G128" s="6">
         <v>1</v>
       </c>
-      <c r="K128" s="2" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>45607</v>
+        <v>45609</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C129" t="s">
-        <v>181</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E129" s="12" t="s">
-        <v>38</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E129" s="12"/>
       <c r="F129" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G129" s="6">
-        <v>0.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>45607</v>
+        <v>45609</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>192</v>
+        <v>270</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E130" s="12"/>
+        <v>272</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="F130" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H130" s="8">
         <v>1</v>
@@ -4677,290 +4728,280 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E131" s="12" t="s">
-        <v>40</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="E131" s="12"/>
       <c r="F131" s="10">
         <v>3</v>
       </c>
-      <c r="G131" s="6">
-        <v>0.8</v>
+      <c r="I131" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>45588</v>
+        <v>45609</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C132" t="s">
-        <v>84</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>38</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E132" s="12"/>
       <c r="F132" s="10">
-        <v>6</v>
-      </c>
-      <c r="G132" s="6">
-        <v>1.3</v>
+        <v>3</v>
+      </c>
+      <c r="H132" s="8">
+        <v>1</v>
+      </c>
+      <c r="I132" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>45607</v>
+        <v>45609</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C133" t="s">
-        <v>212</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>73</v>
+        <v>291</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F133" s="10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G133" s="6">
-        <v>1.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>45612</v>
+        <v>45588</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
+      </c>
+      <c r="C134" t="s">
+        <v>109</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" s="12"/>
+        <v>110</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="F134" s="10">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="H134" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
-        <v>45609</v>
+        <v>45586</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>289</v>
+        <v>39</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="E135" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F135" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G135" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <v>45610</v>
+        <v>45608</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>325</v>
+        <v>257</v>
+      </c>
+      <c r="C136" t="s">
+        <v>258</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E136" s="12"/>
       <c r="F136" s="10">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G136" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
-        <v>45609</v>
+        <v>45586</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>292</v>
+        <v>48</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>293</v>
+        <v>47</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="10">
-        <v>3</v>
-      </c>
-      <c r="H137" s="8">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="G137" s="6">
+        <v>0.4</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
-        <v>45607</v>
+        <v>45586</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E138" s="12"/>
+      <c r="E138" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="F138" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G138" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="K138" s="2" t="s">
-        <v>219</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
-        <v>45608</v>
+        <v>45588</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>245</v>
+        <v>81</v>
+      </c>
+      <c r="C139" t="s">
+        <v>82</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F139" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G139" s="6">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
-        <v>45608</v>
+        <v>45602</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>230</v>
+        <v>321</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F140" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G140" s="6">
-        <v>4</v>
-      </c>
-      <c r="H140" s="8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
-        <v>45607</v>
+        <v>45584</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C141" t="s">
-        <v>210</v>
+        <v>21</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E141" s="12" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E141" s="12"/>
       <c r="F141" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G141" s="6">
         <v>1</v>
       </c>
+      <c r="K141" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="C142" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E142" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F142" s="10">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="G142" s="6">
+        <v>0.2</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
-        <v>45609</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>267</v>
+        <v>45607</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E143" s="12" t="s">
-        <v>40</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E143" s="12"/>
       <c r="F143" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H143" s="8">
         <v>1</v>
@@ -4968,10 +5009,10 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>11</v>
@@ -4982,508 +5023,516 @@
       <c r="E144" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F144" s="10" t="s">
-        <v>33</v>
+      <c r="F144" s="10">
+        <v>3</v>
       </c>
       <c r="G144" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>45609</v>
+        <v>45588</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>11</v>
+        <v>83</v>
+      </c>
+      <c r="C145" t="s">
+        <v>84</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F145" s="10">
-        <v>9</v>
-      </c>
-      <c r="H145" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="G145" s="6">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
-        <v>45588</v>
+        <v>45607</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C146" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C146" t="s">
+        <v>212</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F146" s="10">
+        <v>16</v>
+      </c>
+      <c r="G146" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
+        <v>45612</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E146" s="12"/>
-      <c r="F146" s="10">
-        <v>10</v>
-      </c>
-      <c r="G146" s="6">
-        <v>15</v>
-      </c>
-      <c r="I146" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" s="4">
-        <v>45609</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="10">
-        <v>1</v>
-      </c>
-      <c r="G147" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>45609</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>318</v>
+        <v>11</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E148" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="F148" s="10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G148" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>124</v>
+        <v>325</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E149" s="12"/>
       <c r="F149" s="10">
-        <v>13</v>
-      </c>
-      <c r="I149" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="G149" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
-        <v>45588</v>
+        <v>45609</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C150" t="s">
-        <v>91</v>
+        <v>292</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E150" s="12" t="s">
-        <v>90</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E150" s="12"/>
       <c r="F150" s="10">
-        <v>2</v>
-      </c>
-      <c r="G150" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H150" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
-        <v>45609</v>
+        <v>45607</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="C151" t="s">
-        <v>278</v>
+        <v>217</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E151" s="12" t="s">
-        <v>90</v>
-      </c>
+      <c r="E151" s="12"/>
       <c r="F151" s="10">
+        <v>2</v>
+      </c>
+      <c r="G151" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F152" s="10">
         <v>8</v>
       </c>
-      <c r="G151" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B152" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C152" t="s">
-        <v>202</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E152" s="12"/>
-      <c r="F152" s="10">
-        <v>9</v>
-      </c>
       <c r="G152" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
-        <v>45584</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>10</v>
+        <v>45608</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E153" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F153" s="10">
+        <v>3</v>
+      </c>
+      <c r="G153" s="6">
         <v>4</v>
-      </c>
-      <c r="G153" s="6">
-        <v>3</v>
       </c>
       <c r="H153" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C154" t="s">
+        <v>210</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F154" s="10">
+        <v>7</v>
+      </c>
+      <c r="G154" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C155" t="s">
+        <v>86</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
         <v>45609</v>
       </c>
-      <c r="B154" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="B156" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F156" s="10">
+        <v>5</v>
+      </c>
+      <c r="H156" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G157" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F158" s="10">
+        <v>9</v>
+      </c>
+      <c r="H158" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E154" s="12"/>
-      <c r="F154" s="10">
-        <v>9</v>
-      </c>
-      <c r="G154" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="4">
+      <c r="E159" s="12"/>
+      <c r="F159" s="10">
+        <v>10</v>
+      </c>
+      <c r="G159" s="6">
+        <v>15</v>
+      </c>
+      <c r="I159" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="4">
         <v>45609</v>
       </c>
-      <c r="B155" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E155" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F155" s="10">
-        <v>13</v>
-      </c>
-      <c r="H155" s="8">
+      <c r="B160" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E160" s="12"/>
+      <c r="F160" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" s="4">
-        <v>45607</v>
-      </c>
-      <c r="B156" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C156" t="s">
-        <v>196</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F156" s="10">
-        <v>3</v>
-      </c>
-      <c r="G156" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="4">
+      <c r="G160" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" s="4">
         <v>45609</v>
       </c>
-      <c r="B157" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C157" t="s">
-        <v>262</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E157" s="12"/>
-      <c r="F157" s="10">
-        <v>2</v>
-      </c>
-      <c r="H157" s="8">
+      <c r="B161" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161" s="12"/>
+      <c r="F161" s="10">
+        <v>12</v>
+      </c>
+      <c r="G161" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B158" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E158" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F158" s="10">
-        <v>4</v>
-      </c>
-      <c r="G158" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="4">
-        <v>45586</v>
-      </c>
-      <c r="B159" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E159" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F159" s="10">
-        <v>1</v>
-      </c>
-      <c r="G159" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B160" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E160" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F160" s="10">
-        <v>4</v>
-      </c>
-      <c r="H160" s="8">
-        <v>1</v>
-      </c>
-      <c r="I160" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A161" s="4">
-        <v>45608</v>
-      </c>
-      <c r="B161" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E161" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F161" s="10">
-        <v>1</v>
-      </c>
-      <c r="G161" s="6">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
-        <v>45612</v>
+        <v>45609</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="C162" t="s">
-        <v>349</v>
+        <v>283</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E162" s="12" t="s">
-        <v>280</v>
-      </c>
+      <c r="E162" s="12"/>
       <c r="F162" s="10">
-        <v>19</v>
-      </c>
-      <c r="K162" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I162" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
-        <v>45612</v>
+        <v>45588</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>351</v>
+        <v>89</v>
       </c>
       <c r="C163" t="s">
-        <v>352</v>
+        <v>91</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F163" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="F163" s="10">
+        <v>2</v>
+      </c>
+      <c r="G163" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
-        <v>45612</v>
+        <v>45609</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>354</v>
+        <v>277</v>
+      </c>
+      <c r="C164" t="s">
+        <v>278</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E164" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="F164" s="10">
+        <v>8</v>
+      </c>
+      <c r="G164" s="6">
         <v>1</v>
       </c>
-      <c r="G164" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
-        <v>45612</v>
+        <v>45607</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>356</v>
+        <v>201</v>
+      </c>
+      <c r="C165" t="s">
+        <v>202</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="E165" s="12"/>
       <c r="F165" s="10">
+        <v>9</v>
+      </c>
+      <c r="G165" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>45584</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F166" s="10">
+        <v>4</v>
+      </c>
+      <c r="G166" s="6">
         <v>3</v>
       </c>
-      <c r="G165" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166" s="4">
-        <v>45612</v>
-      </c>
-      <c r="B166" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="12"/>
-      <c r="F166" s="10">
+      <c r="H166" s="8">
         <v>1</v>
       </c>
-      <c r="G166" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>45612</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>18</v>
@@ -5493,10 +5542,10 @@
         <v>3</v>
       </c>
       <c r="G167" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>45612</v>
       </c>
@@ -5515,6 +5564,246 @@
       </c>
       <c r="G168" s="6">
         <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="4">
+        <v>45612</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E169" s="12"/>
+      <c r="F169" s="10">
+        <v>3</v>
+      </c>
+      <c r="G169" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="4">
+        <v>45612</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E170" s="12"/>
+      <c r="F170" s="10">
+        <v>1</v>
+      </c>
+      <c r="G170" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E171" s="12"/>
+      <c r="F171" s="10">
+        <v>9</v>
+      </c>
+      <c r="G171" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" s="4">
+        <v>45612</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E172" s="12"/>
+      <c r="F172" s="10">
+        <v>1</v>
+      </c>
+      <c r="G172" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F173" s="10">
+        <v>13</v>
+      </c>
+      <c r="H173" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C174" t="s">
+        <v>196</v>
+      </c>
+      <c r="E174" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F174" s="10">
+        <v>3</v>
+      </c>
+      <c r="G174" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C175" t="s">
+        <v>262</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E175" s="12"/>
+      <c r="F175" s="10">
+        <v>2</v>
+      </c>
+      <c r="H175" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F176" s="10">
+        <v>4</v>
+      </c>
+      <c r="G176" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F177" s="10">
+        <v>1</v>
+      </c>
+      <c r="G177" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F178" s="10">
+        <v>4</v>
+      </c>
+      <c r="H178" s="8">
+        <v>1</v>
+      </c>
+      <c r="I178" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E179" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F179" s="10">
+        <v>1</v>
+      </c>
+      <c r="G179" s="6">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/src/inventory.xlsx
+++ b/src/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Erik\Persoonlijk\component-inventory\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52043C08-F85A-4E54-8B45-E8C96C56F574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BCC0F4-C3AE-4ADB-98A5-412C88408CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25670" yWindow="-4240" windowWidth="28770" windowHeight="17630" xr2:uid="{7B4DE2BE-437B-4368-A10E-354E74019CAE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22248" windowHeight="14616" xr2:uid="{7B4DE2BE-437B-4368-A10E-354E74019CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Components" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,33 @@
     <author>Erik Siegel</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{ECA93692-CCEC-423D-950A-2EAAB95CD5FF}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{862C948D-90FF-4883-BF1C-C996E3AF2FF2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Erik Siegel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+How is this component called.
+Default: ID
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{ECA93692-CCEC-423D-950A-2EAAB95CD5FF}">
       <text>
         <r>
           <rPr>
@@ -78,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{3857E8AF-A2D0-40BE-82C9-8DBF04A47920}">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{3857E8AF-A2D0-40BE-82C9-8DBF04A47920}">
       <text>
         <r>
           <rPr>
@@ -92,7 +118,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{E262FF76-90C5-4210-88CF-D5FFFD1EC4E7}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{A48C17C0-0D7F-4E29-8E25-A303AF6E16ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Erik Siegel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Discontinued? 1/0
+Default: 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{E262FF76-90C5-4210-88CF-D5FFFD1EC4E7}">
       <text>
         <r>
           <rPr>
@@ -106,15 +157,62 @@
         </r>
       </text>
     </comment>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{D16AE101-691F-4CE0-9F91-85C6830C8655}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Erik Siegel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Overflow in zakje? 1/0
+Default: 0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{7FEC122C-35E7-41B8-B9DA-58B060EB1F62}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Erik Siegel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="384">
-  <si>
-    <t>What (ID)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="391">
   <si>
     <t>Description</t>
   </si>
@@ -125,18 +223,12 @@
     <t>Price new</t>
   </si>
   <si>
-    <t>Info?</t>
-  </si>
-  <si>
     <t>Date entered</t>
   </si>
   <si>
     <t>Remarks</t>
   </si>
   <si>
-    <t>Location hint</t>
-  </si>
-  <si>
     <t>B250C5000</t>
   </si>
   <si>
@@ -149,9 +241,6 @@
     <t>Opamp</t>
   </si>
   <si>
-    <t>Discontinued?</t>
-  </si>
-  <si>
     <t>HEF4077B</t>
   </si>
   <si>
@@ -857,9 +946,6 @@
     <t>Dual D-type flip-flop with set and reset</t>
   </si>
   <si>
-    <t>+++</t>
-  </si>
-  <si>
     <t>ULN2803A</t>
   </si>
   <si>
@@ -1263,6 +1349,43 @@
   </si>
   <si>
     <t>Quad D-type flip-flop with reset; positive-edge trigger</t>
+  </si>
+  <si>
+    <t>TL084</t>
+  </si>
+  <si>
+    <t>FET-Input Operational Amplifiers</t>
+  </si>
+  <si>
+    <t>Dis?</t>
+  </si>
+  <si>
+    <t>Inf?</t>
+  </si>
+  <si>
+    <t>Ovf?</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Container
+label</t>
+  </si>
+  <si>
+    <t>TCA/TBA</t>
+  </si>
+  <si>
+    <t>(bag)</t>
+  </si>
+  <si>
+    <t>OPAMP A</t>
+  </si>
+  <si>
+    <t>TRANS A</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1396,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1309,6 +1432,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1337,7 +1473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1375,17 +1511,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1439,12 +1590,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1462,23 +1607,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A3:K179" totalsRowShown="0">
-  <autoFilter ref="A3:K179" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K179">
-    <sortCondition ref="B3:B179"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A3:M180" totalsRowShown="0">
+  <autoFilter ref="A3:M180" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:M180">
+    <sortCondition ref="B3:B180"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{C4F97701-1496-46B7-9BA9-0E2C3EE5AEE8}" name="Date entered" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{4DC12199-FF40-45B6-B436-8A468545B299}" name="What (ID)" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{69F80D61-7C25-4979-AC65-07BF974B94CD}" name="Description" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{866FE6F7-4C77-4DFC-8276-626C8EFC52FE}" name="Physical" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{F0522F8C-239A-47D3-AAC3-84C0298DE03D}" name="Category" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{5D10E9C5-0203-477A-BE8A-702095729964}" name="#" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{58836982-1560-4468-B3FA-C719BF7A6B8E}" name="Price new" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{2B911097-BF1F-4AE7-9FBF-4EB61E6FEAA0}" name="Discontinued?" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="9" xr3:uid="{733B96AD-1052-4C23-ACF8-4BC73BCF75D1}" name="Info?" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{C11A6F65-BB37-4457-96CC-87484A26B267}" name="Location hint" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{A74B9126-8E11-4AC0-B51E-172A497977C6}" name="Remarks" dataDxfId="0"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{C4F97701-1496-46B7-9BA9-0E2C3EE5AEE8}" name="Date entered" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{4DC12199-FF40-45B6-B436-8A468545B299}" name="ID" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{3DC0BEEF-6936-4ECB-A1BE-3ED5BD026DB7}" name="Label" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{69F80D61-7C25-4979-AC65-07BF974B94CD}" name="Description" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{866FE6F7-4C77-4DFC-8276-626C8EFC52FE}" name="Physical" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{F0522F8C-239A-47D3-AAC3-84C0298DE03D}" name="Category" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{5D10E9C5-0203-477A-BE8A-702095729964}" name="#" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{58836982-1560-4468-B3FA-C719BF7A6B8E}" name="Price new" dataDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{2B911097-BF1F-4AE7-9FBF-4EB61E6FEAA0}" name="Dis?" dataDxfId="7" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{733B96AD-1052-4C23-ACF8-4BC73BCF75D1}" name="Inf?" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{C11A6F65-BB37-4457-96CC-87484A26B267}" name="Ovf?" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{06FDB105-7AEE-46A3-A796-C7E470A60C29}" name="Container_x000a_label" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{A74B9126-8E11-4AC0-B51E-172A497977C6}" name="Remarks" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1801,4020 +1948,4182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E1E352-0B9B-45A5-97A3-5920624A3ECD}">
-  <dimension ref="A3:K179"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A3:M180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M85" sqref="M85"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="61.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="28.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="57.21875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="61.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="35.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45609</v>
       </c>
       <c r="B4" s="12">
         <v>7407</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="12">
+        <v>297</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="12">
         <v>74</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45588</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="10">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="10">
         <v>7</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45586</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="10">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="10">
         <v>4</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45588</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="10">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="10">
         <v>2</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>45586</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="10">
+        <v>62</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="10">
         <v>4</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45588</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="10">
+        <v>116</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45609</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10">
+        <v>314</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45612</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45612</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="C12" t="s">
-        <v>381</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+      <c r="D12" t="s">
+        <v>376</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45609</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F13" s="10">
+        <v>307</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" s="10">
         <v>26</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45612</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="C14" t="s">
-        <v>367</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F14" s="10">
+        <v>361</v>
+      </c>
+      <c r="D14" t="s">
+        <v>362</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" s="10">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45609</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="C15" t="s">
-        <v>316</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="6">
+        <v>310</v>
+      </c>
+      <c r="D15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>45609</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>305</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F16" s="10">
+        <v>60</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G16" s="10">
         <v>14</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <v>0.45</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45610</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F17" s="10">
+        <v>318</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G17" s="10">
         <v>19</v>
       </c>
-      <c r="G17" s="6">
+      <c r="H17" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45612</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="C18" t="s">
-        <v>344</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="D18" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="10">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45612</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="C19" t="s">
-        <v>352</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+      <c r="D19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45609</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="C20" t="s">
-        <v>297</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F20" s="10">
+        <v>291</v>
+      </c>
+      <c r="D20" t="s">
+        <v>292</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G20" s="10">
         <v>13</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H20" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>45610</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="C21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F21" s="10">
+        <v>333</v>
+      </c>
+      <c r="D21" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G21" s="10">
         <v>30</v>
       </c>
-      <c r="G21" s="6">
+      <c r="H21" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45612</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="C22" t="s">
-        <v>375</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="D22" t="s">
+        <v>370</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>45612</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="C23" t="s">
-        <v>379</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F23" s="10">
+        <v>373</v>
+      </c>
+      <c r="D23" t="s">
+        <v>374</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G23" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45610</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="6">
+        <v>326</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="6">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45610</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="C25" t="s">
-        <v>329</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F25" s="10">
+        <v>323</v>
+      </c>
+      <c r="D25" t="s">
+        <v>324</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G25" s="10">
         <v>17</v>
       </c>
-      <c r="G25" s="6">
+      <c r="H25" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>45609</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F26" s="10">
+        <v>301</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G26" s="10">
         <v>28</v>
       </c>
-      <c r="G26" s="6">
+      <c r="H26" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>45612</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="C27" t="s">
-        <v>364</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F27" s="10">
+        <v>358</v>
+      </c>
+      <c r="D27" t="s">
+        <v>359</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G27" s="10">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>45612</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="C28" t="s">
-        <v>383</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F28" s="10">
+        <v>377</v>
+      </c>
+      <c r="D28" t="s">
+        <v>378</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G28" s="10">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45612</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="C29" t="s">
-        <v>369</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F29" s="10">
+        <v>363</v>
+      </c>
+      <c r="D29" t="s">
+        <v>364</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G29" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45609</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="C30" t="s">
-        <v>179</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F30" s="10">
+        <v>302</v>
+      </c>
+      <c r="D30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" s="10">
         <v>15</v>
       </c>
-      <c r="G30" s="6">
+      <c r="H30" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45609</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="6">
+        <v>290</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45609</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="C32" t="s">
-        <v>301</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="6">
+        <v>295</v>
+      </c>
+      <c r="D32" t="s">
+        <v>296</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45612</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="C33" t="s">
-        <v>349</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F33" s="10">
+        <v>343</v>
+      </c>
+      <c r="D33" t="s">
+        <v>344</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G33" s="10">
         <v>19</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M33" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>45609</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C34" t="s">
-        <v>314</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F34" s="10">
+        <v>308</v>
+      </c>
+      <c r="D34" t="s">
+        <v>309</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G34" s="10">
         <v>28</v>
       </c>
-      <c r="G34" s="6">
+      <c r="H34" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45612</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F35" s="10">
+        <v>366</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G35" s="10">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>45610</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F36" s="10">
+        <v>331</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G36" s="10">
         <v>13</v>
       </c>
-      <c r="G36" s="6">
+      <c r="H36" s="6">
         <v>2</v>
       </c>
-      <c r="H36" s="8">
+      <c r="I36" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45612</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C37" t="s">
+        <v>335</v>
+      </c>
+      <c r="D37" t="s">
+        <v>336</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G37" s="10">
+        <v>35</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F37" s="10">
-        <v>35</v>
-      </c>
-      <c r="G37" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45612</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F38" s="10">
+        <v>74</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" s="10">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>45610</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="C39" t="s">
-        <v>335</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F39" s="10">
+        <v>329</v>
+      </c>
+      <c r="D39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" s="10">
         <v>23</v>
       </c>
-      <c r="G39" s="6">
+      <c r="H39" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45610</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="C40" t="s">
-        <v>333</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="6">
+        <v>327</v>
+      </c>
+      <c r="D40" t="s">
+        <v>328</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="6">
         <v>0.3</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45612</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G41" s="10">
         <v>20</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F41" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45609</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" s="6">
+        <v>304</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="6">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45609</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="C43" t="s">
-        <v>282</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F43" s="10">
+        <v>274</v>
+      </c>
+      <c r="D43" t="s">
+        <v>277</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G43" s="10">
         <v>17</v>
       </c>
-      <c r="H43" s="8">
+      <c r="I43" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45607</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F44" s="10">
+        <v>155</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G44" s="10">
         <v>20</v>
       </c>
-      <c r="G44" s="6">
+      <c r="H44" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45303</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G45" s="6">
+        <v>251</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="6">
         <v>0.8</v>
       </c>
-      <c r="H45" s="8">
+      <c r="I45" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45608</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G46" s="6">
+        <v>242</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="6">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I46" s="8">
+        <v>1</v>
+      </c>
+      <c r="K46" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>45610</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="C47" t="s">
-        <v>327</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" s="6">
+        <v>321</v>
+      </c>
+      <c r="D47" t="s">
+        <v>322</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="6">
         <v>1.5</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45609</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="C48" t="s">
-        <v>304</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="6">
+        <v>298</v>
+      </c>
+      <c r="D48" t="s">
+        <v>299</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="6">
         <v>1.5</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>45588</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="F49" s="10">
+        <v>111</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G49" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>45609</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="C50" t="s">
-        <v>286</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="10">
+        <v>280</v>
+      </c>
+      <c r="D50" t="s">
+        <v>281</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>45609</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="10">
+        <v>255</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="10">
         <v>5</v>
       </c>
-      <c r="H51" s="8">
+      <c r="I51" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45607</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="10">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="10">
         <v>29</v>
       </c>
-      <c r="H52" s="8">
+      <c r="I52" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>45607</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="10">
+        <v>219</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="10">
         <v>9</v>
       </c>
-      <c r="K53" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>45584</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" s="10">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="10">
         <v>7</v>
       </c>
-      <c r="G54" s="6">
+      <c r="H54" s="6">
         <v>2.5</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45617</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" s="10">
+        <v>150</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="10">
         <v>11</v>
       </c>
-      <c r="G55" s="6">
+      <c r="H55" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>45608</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F56" s="10">
+        <v>234</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="10">
         <v>6</v>
       </c>
-      <c r="G56" s="6">
+      <c r="H56" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>45608</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F57" s="10">
+        <v>236</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="10">
         <v>6</v>
       </c>
-      <c r="G57" s="6">
+      <c r="H57" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>45586</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" s="6">
+        <v>25</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>45602</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" s="10">
+        <v>150</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" s="10">
         <v>3</v>
       </c>
-      <c r="G59" s="6">
+      <c r="H59" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>45607</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G60" s="6">
+        <v>204</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="6">
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>45590</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" s="10">
+        <v>25</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="10">
         <v>5</v>
       </c>
-      <c r="G61" s="6">
+      <c r="H61" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>45586</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E62" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" s="6">
+      <c r="E62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>45608</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63" s="10">
+        <v>25</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="10">
         <v>4</v>
       </c>
-      <c r="G63" s="6">
+      <c r="H63" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>45602</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F64" s="10">
+        <v>160</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="10">
         <v>14</v>
       </c>
-      <c r="G64" s="6">
+      <c r="H64" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>45607</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F65" s="10">
+        <v>181</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="10">
         <v>5</v>
       </c>
-      <c r="G65" s="6">
+      <c r="H65" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>45588</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F66" s="10">
+        <v>123</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="10">
         <v>3</v>
       </c>
-      <c r="G66" s="6">
+      <c r="H66" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>45608</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C67" t="s">
-        <v>252</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G67" s="6">
+        <v>246</v>
+      </c>
+      <c r="D67" t="s">
+        <v>247</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>45607</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F68" s="10">
+        <v>120</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>45602</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F69" s="10">
+        <v>151</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" s="10">
         <v>20</v>
       </c>
-      <c r="G69" s="6">
+      <c r="H69" s="6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>45607</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F70" s="10">
+        <v>202</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="10">
         <v>19</v>
       </c>
-      <c r="G70" s="6">
+      <c r="H70" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>45590</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G71" s="6">
+        <v>138</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>45602</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" s="10">
+        <v>25</v>
+      </c>
+      <c r="I72" s="8">
+        <v>1</v>
+      </c>
+      <c r="M72" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E72" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F72" s="10">
-        <v>25</v>
-      </c>
-      <c r="H72" s="8">
-        <v>1</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>45607</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F73" s="10">
+        <v>187</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="10">
         <v>15</v>
       </c>
-      <c r="G73" s="6">
+      <c r="H73" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>45588</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F74" s="10">
+        <v>96</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" s="10">
         <v>18</v>
       </c>
-      <c r="G74" s="6">
+      <c r="H74" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>45586</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F75" s="10">
+        <v>33</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" s="10">
         <v>2</v>
       </c>
-      <c r="G75" s="6">
+      <c r="H75" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>45588</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C76" t="s">
-        <v>95</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F76" s="10">
+        <v>90</v>
+      </c>
+      <c r="D76" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" s="10">
         <v>8</v>
       </c>
-      <c r="G76" s="6">
+      <c r="H76" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>45607</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F77" s="10">
+        <v>185</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" s="10">
         <v>1</v>
       </c>
-      <c r="G77" s="6">
+      <c r="H77" s="6">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>45607</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F78" s="10">
+        <v>172</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G78" s="10">
         <v>23</v>
       </c>
-      <c r="G78" s="6">
+      <c r="H78" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>45602</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F79" s="10">
+        <v>147</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" s="10">
         <v>17</v>
       </c>
-      <c r="H79" s="8">
+      <c r="I79" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>45607</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C80" t="s">
-        <v>215</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="10">
+        <v>210</v>
+      </c>
+      <c r="D80" t="s">
+        <v>211</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="12"/>
+      <c r="G80" s="10">
         <v>24</v>
       </c>
-      <c r="G80" s="6">
+      <c r="H80" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>45607</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F81" s="10">
+        <v>163</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G81" s="10">
         <v>8</v>
       </c>
-      <c r="G81" s="6">
+      <c r="H81" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>45588</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F82" s="10">
+        <v>84</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" s="10">
         <v>5</v>
       </c>
-      <c r="G82" s="6">
+      <c r="H82" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>45608</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="10">
+        <v>239</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G83" s="6">
+      <c r="F83" s="12"/>
+      <c r="G83" s="10">
+        <v>14</v>
+      </c>
+      <c r="H83" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>45608</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E84" s="12"/>
-      <c r="F84" s="10">
+        <v>223</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F84" s="12"/>
+      <c r="G84" s="10">
         <v>1</v>
       </c>
-      <c r="G84" s="6">
+      <c r="H84" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>45608</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E85" s="12"/>
-      <c r="F85" s="10">
+        <v>228</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F85" s="12"/>
+      <c r="G85" s="10">
         <v>2</v>
       </c>
-      <c r="I85" s="10">
+      <c r="J85" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>45609</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F86" s="10">
+        <v>270</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" s="10">
         <v>9</v>
       </c>
-      <c r="G86" s="6">
+      <c r="H86" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>45590</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C87" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F87" s="10">
+        <v>129</v>
+      </c>
+      <c r="D87" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" s="10">
         <v>8</v>
       </c>
-      <c r="G87" s="6">
+      <c r="H87" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>45588</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C88" t="s">
-        <v>116</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F88" s="10">
+        <v>109</v>
+      </c>
+      <c r="D88" t="s">
+        <v>112</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="10">
         <v>10</v>
       </c>
-      <c r="G88" s="6">
+      <c r="H88" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>45607</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F89" s="10">
+        <v>195</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" s="10">
         <v>9</v>
       </c>
-      <c r="G89" s="6">
+      <c r="H89" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>45584</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F90" s="10">
+        <v>12</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="10">
         <v>8</v>
       </c>
-      <c r="G90" s="6">
+      <c r="H90" s="6">
         <v>1.4</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>45586</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C91" t="s">
-        <v>54</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F91" s="10">
+        <v>49</v>
+      </c>
+      <c r="D91" t="s">
+        <v>50</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" s="10">
         <v>7</v>
       </c>
-      <c r="G91" s="6">
+      <c r="H91" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>45586</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F92" s="10">
+        <v>53</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" s="10">
         <v>9</v>
       </c>
-      <c r="G92" s="6">
+      <c r="H92" s="6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>45586</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F93" s="10">
+        <v>66</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" s="10">
         <v>10</v>
       </c>
-      <c r="G93" s="6">
+      <c r="H93" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>45588</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" t="s">
-        <v>92</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F94" s="10">
+        <v>89</v>
+      </c>
+      <c r="D94" t="s">
+        <v>88</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="10">
         <v>7</v>
       </c>
-      <c r="G94" s="6">
+      <c r="H94" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>45588</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C95" t="s">
-        <v>104</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F95" s="10">
+        <v>99</v>
+      </c>
+      <c r="D95" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" s="10">
         <v>6</v>
       </c>
-      <c r="G95" s="6">
+      <c r="H95" s="6">
         <v>0.2</v>
       </c>
-      <c r="K95" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M95" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>45588</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C96" t="s">
-        <v>112</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F96" s="10">
+        <v>107</v>
+      </c>
+      <c r="D96" t="s">
+        <v>108</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" s="10">
         <v>1</v>
       </c>
-      <c r="G96" s="6">
+      <c r="H96" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>45588</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C97" t="s">
-        <v>122</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F97" s="10">
+        <v>117</v>
+      </c>
+      <c r="D97" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" s="10">
         <v>8</v>
       </c>
-      <c r="G97" s="6">
+      <c r="H97" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>45609</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F98" s="10">
+        <v>294</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" s="10">
         <v>21</v>
       </c>
-      <c r="G98" s="6">
+      <c r="H98" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>45607</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F99" s="10">
+        <v>175</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99" s="10">
         <v>7</v>
       </c>
-      <c r="G99" s="6">
+      <c r="H99" s="6">
         <v>1.5</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>45602</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C100" t="s">
-        <v>157</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F100" s="10">
+        <v>152</v>
+      </c>
+      <c r="D100" t="s">
+        <v>153</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="10">
         <v>10</v>
       </c>
-      <c r="G100" s="6">
+      <c r="H100" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>45607</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E101" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F101" s="10">
+        <v>170</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="10">
         <v>8</v>
       </c>
-      <c r="G101" s="6">
+      <c r="H101" s="6">
         <v>1.25</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>45586</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F102" s="10">
+        <v>51</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102" s="10">
         <v>6</v>
       </c>
-      <c r="G102" s="6">
+      <c r="H102" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>45586</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F103" s="10">
+        <v>60</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="10">
         <v>10</v>
       </c>
-      <c r="G103" s="6">
+      <c r="H103" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>45588</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F104" s="10">
+        <v>74</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" s="10">
         <v>8</v>
       </c>
-      <c r="G104" s="6">
+      <c r="H104" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>45588</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F105" s="10">
+        <v>98</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" s="10">
         <v>6</v>
       </c>
-      <c r="G105" s="6">
+      <c r="H105" s="6">
         <v>0.4</v>
       </c>
-      <c r="H105" s="8">
+      <c r="I105" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>45588</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C106" t="s">
-        <v>118</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F106" s="10">
+        <v>113</v>
+      </c>
+      <c r="D106" t="s">
+        <v>114</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" s="10">
         <v>10</v>
       </c>
-      <c r="G106" s="6">
+      <c r="H106" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>45588</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C107" t="s">
-        <v>128</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F107" s="10">
+        <v>125</v>
+      </c>
+      <c r="D107" t="s">
+        <v>124</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G107" s="10">
         <v>10</v>
       </c>
-      <c r="G107" s="6">
+      <c r="H107" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>45602</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F108" s="10">
+        <v>143</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" s="10">
         <v>10</v>
       </c>
-      <c r="H108" s="8">
+      <c r="I108" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>45588</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C109" t="s">
-        <v>107</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F109" s="10">
+        <v>101</v>
+      </c>
+      <c r="D109" t="s">
+        <v>103</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" s="10">
         <v>6</v>
       </c>
-      <c r="G109" s="6">
+      <c r="H109" s="6">
         <v>1.8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>45586</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F110" s="10">
+        <v>52</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G110" s="10">
         <v>9</v>
       </c>
-      <c r="G110" s="6">
+      <c r="H110" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>45586</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F111" s="10">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" s="10">
         <v>8</v>
       </c>
-      <c r="G111" s="6">
+      <c r="H111" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>45607</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F112" s="10">
+        <v>179</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" s="10">
         <v>9</v>
       </c>
-      <c r="G112" s="6">
+      <c r="H112" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>45607</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="C113" t="s">
-        <v>221</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F113" s="10">
+        <v>216</v>
+      </c>
+      <c r="D113" t="s">
+        <v>217</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G113" s="10">
         <f>27</f>
         <v>27</v>
       </c>
-      <c r="G113" s="6">
+      <c r="H113" s="6">
         <v>0.5</v>
       </c>
-      <c r="K113" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M113" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>45586</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C114" t="s">
-        <v>52</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F114" s="10">
+        <v>47</v>
+      </c>
+      <c r="D114" t="s">
+        <v>48</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G114" s="10">
         <f>7+35</f>
         <v>42</v>
       </c>
-      <c r="G114" s="6">
+      <c r="H114" s="6">
         <v>0.3</v>
       </c>
-      <c r="K114" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M114" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>45586</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F115" s="10">
+        <v>58</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G115" s="10">
         <v>10</v>
       </c>
-      <c r="G115" s="6">
+      <c r="H115" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>45602</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F116" s="10">
+        <v>158</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" s="10">
         <v>4</v>
       </c>
-      <c r="G116" s="6">
+      <c r="H116" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>45602</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C117" t="s">
-        <v>159</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F117" s="10">
+        <v>154</v>
+      </c>
+      <c r="D117" t="s">
+        <v>155</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G117" s="10">
         <v>35</v>
       </c>
-      <c r="G117" s="6">
+      <c r="H117" s="6">
         <v>0.5</v>
       </c>
-      <c r="K117" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M117" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>45602</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F118" s="10">
+        <v>145</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G118" s="10">
         <f>8+29</f>
         <v>37</v>
       </c>
-      <c r="G118" s="6">
+      <c r="H118" s="6">
         <v>0.3</v>
       </c>
-      <c r="K118" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M118" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>45590</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C119" t="s">
-        <v>137</v>
-      </c>
-      <c r="D119" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D119" t="s">
+        <v>133</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G119" s="10">
+        <v>5</v>
+      </c>
+      <c r="H119" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="M119" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E119" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F119" s="10">
-        <v>5</v>
-      </c>
-      <c r="G119" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>45590</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C120" t="s">
-        <v>132</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F120" s="10">
+        <v>127</v>
+      </c>
+      <c r="D120" t="s">
+        <v>128</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G120" s="10">
         <v>8</v>
       </c>
-      <c r="G120" s="6">
+      <c r="H120" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>45584</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F121" s="10">
+        <v>10</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G121" s="10">
         <v>7</v>
       </c>
-      <c r="G121" s="6">
+      <c r="H121" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>45584</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F122" s="10">
+        <v>22</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G122" s="10">
         <v>10</v>
       </c>
-      <c r="G122" s="6">
+      <c r="H122" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>45586</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F123" s="10">
+        <v>42</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G123" s="10">
         <v>9</v>
       </c>
-      <c r="G123" s="6">
+      <c r="H123" s="6">
         <v>1.4</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>45586</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C124" t="s">
-        <v>35</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F124" s="10">
+        <v>30</v>
+      </c>
+      <c r="D124" t="s">
+        <v>31</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G124" s="10">
         <v>10</v>
       </c>
-      <c r="G124" s="6">
+      <c r="H124" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>45607</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C125" t="s">
-        <v>187</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E125" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F125" s="10">
+        <v>182</v>
+      </c>
+      <c r="D125" t="s">
+        <v>183</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G125" s="10">
         <v>7</v>
       </c>
-      <c r="G125" s="6">
+      <c r="H125" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>45607</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E126" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F126" s="10">
+        <v>167</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G126" s="10">
         <v>5</v>
       </c>
-      <c r="G126" s="6">
+      <c r="H126" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>45607</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E127" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F127" s="10">
+        <v>194</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G127" s="10">
         <v>10</v>
       </c>
-      <c r="G127" s="6">
+      <c r="H127" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>45607</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C128" t="s">
-        <v>204</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E128" s="12"/>
-      <c r="F128" s="10">
+        <v>199</v>
+      </c>
+      <c r="D128" t="s">
+        <v>200</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="12"/>
+      <c r="G128" s="10">
         <v>4</v>
       </c>
-      <c r="G128" s="6">
+      <c r="H128" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>45609</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E129" s="12"/>
-      <c r="F129" s="10">
+        <v>263</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F129" s="12"/>
+      <c r="G129" s="10">
         <v>5</v>
       </c>
-      <c r="G129" s="6">
+      <c r="H129" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L129" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>45609</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E130" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F130" s="10">
+        <v>266</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G130" s="10">
         <v>1</v>
       </c>
-      <c r="H130" s="8">
+      <c r="I130" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L130" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>45608</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E131" s="12"/>
-      <c r="F131" s="10">
+        <v>230</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F131" s="12"/>
+      <c r="G131" s="10">
         <v>3</v>
       </c>
-      <c r="I131" s="10">
+      <c r="J131" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L131" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>45609</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E132" s="12"/>
-      <c r="F132" s="10">
+        <v>282</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F132" s="12"/>
+      <c r="G132" s="10">
         <v>3</v>
       </c>
-      <c r="H132" s="8">
+      <c r="I132" s="8">
         <v>1</v>
       </c>
-      <c r="I132" s="10">
+      <c r="J132" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L132" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>45609</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E133" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F133" s="10">
+        <v>286</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G133" s="10">
         <v>9</v>
       </c>
-      <c r="G133" s="6">
+      <c r="H133" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>45588</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C134" t="s">
-        <v>109</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E134" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F134" s="10">
+        <v>104</v>
+      </c>
+      <c r="D134" t="s">
+        <v>105</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G134" s="10">
         <v>17</v>
       </c>
-      <c r="H134" s="8">
+      <c r="I134" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L134" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>45586</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F135" s="10">
+        <v>8</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G135" s="10">
         <v>3</v>
       </c>
-      <c r="G135" s="6">
+      <c r="H135" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L135" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>45608</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C136" t="s">
-        <v>258</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E136" s="12"/>
-      <c r="F136" s="10">
+        <v>252</v>
+      </c>
+      <c r="D136" t="s">
+        <v>253</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F136" s="12"/>
+      <c r="G136" s="10">
         <v>24</v>
       </c>
-      <c r="G136" s="6">
+      <c r="H136" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>45586</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E137" s="12"/>
-      <c r="F137" s="10">
+        <v>43</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F137" s="12"/>
+      <c r="G137" s="10">
         <v>4</v>
       </c>
-      <c r="G137" s="6">
+      <c r="H137" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>45586</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E138" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F138" s="10">
+      <c r="E138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G138" s="10">
         <v>5</v>
       </c>
-      <c r="G138" s="6">
+      <c r="H138" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>45588</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C139" t="s">
-        <v>82</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F139" s="10">
+        <v>77</v>
+      </c>
+      <c r="D139" t="s">
+        <v>78</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G139" s="10">
         <v>1</v>
       </c>
-      <c r="G139" s="6">
+      <c r="H139" s="6">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L139" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>45602</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E140" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F140" s="10">
+        <v>316</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G140" s="10">
         <v>4</v>
       </c>
-      <c r="G140" s="6">
+      <c r="H140" s="6">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L140" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>45584</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E141" s="12"/>
-      <c r="F141" s="10">
+        <v>19</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141" s="12"/>
+      <c r="G141" s="10">
         <v>3</v>
       </c>
-      <c r="G141" s="6">
+      <c r="H141" s="6">
         <v>1</v>
       </c>
-      <c r="K141" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M141" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>45607</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C142" t="s">
-        <v>181</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E142" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F142" s="10">
+        <v>176</v>
+      </c>
+      <c r="D142" t="s">
+        <v>177</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G142" s="10">
         <v>1</v>
       </c>
-      <c r="G142" s="6">
+      <c r="H142" s="6">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L142" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>45607</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E143" s="12"/>
-      <c r="F143" s="10">
+        <v>189</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" s="12"/>
+      <c r="G143" s="10">
         <v>7</v>
       </c>
-      <c r="H143" s="8">
+      <c r="I143" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>45607</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E144" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F144" s="10">
+        <v>8</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G144" s="10">
         <v>3</v>
       </c>
-      <c r="G144" s="6">
+      <c r="H144" s="6">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L144" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>45588</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C145" t="s">
-        <v>84</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E145" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F145" s="10">
+        <v>79</v>
+      </c>
+      <c r="D145" t="s">
+        <v>80</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" s="10">
         <v>6</v>
       </c>
-      <c r="G145" s="6">
+      <c r="H145" s="6">
         <v>1.3</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>45607</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C146" t="s">
-        <v>212</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E146" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F146" s="10">
+        <v>207</v>
+      </c>
+      <c r="D146" t="s">
+        <v>208</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G146" s="10">
         <v>16</v>
       </c>
-      <c r="G146" s="6">
+      <c r="H146" s="6">
         <v>1.5</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>45612</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>124</v>
+        <v>342</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E147" s="12"/>
-      <c r="F147" s="10">
+        <v>120</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="12"/>
+      <c r="G147" s="10">
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>45609</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E148" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F148" s="10">
+        <v>8</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G148" s="10">
         <v>6</v>
       </c>
-      <c r="G148" s="6">
+      <c r="H148" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L148" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>45610</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E149" s="12"/>
-      <c r="F149" s="10">
+        <v>320</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F149" s="12"/>
+      <c r="G149" s="10">
         <v>4</v>
       </c>
-      <c r="G149" s="6">
+      <c r="H149" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>45609</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E150" s="12"/>
-      <c r="F150" s="10">
+        <v>288</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F150" s="12"/>
+      <c r="G150" s="10">
         <v>3</v>
       </c>
-      <c r="H150" s="8">
+      <c r="I150" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>45607</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E151" s="12"/>
-      <c r="F151" s="10">
+        <v>214</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F151" s="12"/>
+      <c r="G151" s="10">
         <v>2</v>
       </c>
-      <c r="G151" s="6">
+      <c r="H151" s="6">
         <v>0.75</v>
       </c>
-      <c r="K151" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M151" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>45608</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E152" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F152" s="10">
+        <v>241</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G152" s="10">
         <v>8</v>
       </c>
-      <c r="G152" s="6">
+      <c r="H152" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>45608</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E153" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F153" s="10">
+        <v>227</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G153" s="10">
         <v>3</v>
       </c>
-      <c r="G153" s="6">
+      <c r="H153" s="6">
         <v>4</v>
       </c>
-      <c r="H153" s="8">
+      <c r="I153" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L153" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>45607</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C154" t="s">
-        <v>210</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E154" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F154" s="10">
+        <v>205</v>
+      </c>
+      <c r="D154" t="s">
+        <v>206</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G154" s="10">
         <v>7</v>
       </c>
-      <c r="G154" s="6">
+      <c r="H154" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>45588</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C155" t="s">
-        <v>86</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E155" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F155" s="10">
+        <v>81</v>
+      </c>
+      <c r="D155" t="s">
+        <v>82</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G155" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L155" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>45609</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C156" s="4"/>
       <c r="D156" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F156" s="10">
+        <v>8</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G156" s="10">
         <v>5</v>
       </c>
-      <c r="H156" s="8">
+      <c r="I156" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L156" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>45586</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E157" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F157" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G157" s="6">
+        <v>8</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H157" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>45609</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E158" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F158" s="10">
+        <v>8</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G158" s="10">
         <v>9</v>
       </c>
-      <c r="H158" s="8">
+      <c r="I158" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>45588</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E159" s="12"/>
-      <c r="F159" s="10">
+        <v>120</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="12"/>
+      <c r="G159" s="10">
         <v>10</v>
       </c>
-      <c r="G159" s="6">
+      <c r="H159" s="6">
         <v>15</v>
       </c>
-      <c r="I159" s="10">
+      <c r="J159" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>45609</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E160" s="12"/>
-      <c r="F160" s="10">
+        <v>260</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F160" s="12"/>
+      <c r="G160" s="10">
         <v>1</v>
       </c>
-      <c r="G160" s="6">
+      <c r="H160" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L160" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>45609</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E161" s="12"/>
-      <c r="F161" s="10">
+        <v>313</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F161" s="12"/>
+      <c r="G161" s="10">
         <v>12</v>
       </c>
-      <c r="G161" s="6">
+      <c r="H161" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>45609</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E162" s="12"/>
-      <c r="F162" s="10">
+        <v>120</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="12"/>
+      <c r="G162" s="10">
         <v>13</v>
       </c>
-      <c r="I162" s="10">
+      <c r="J162" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>45588</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C163" t="s">
-        <v>91</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E163" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F163" s="10">
+        <v>85</v>
+      </c>
+      <c r="D163" t="s">
+        <v>87</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G163" s="10">
         <v>2</v>
       </c>
-      <c r="G163" s="6">
+      <c r="H163" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>45609</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="C164" t="s">
-        <v>278</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E164" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F164" s="10">
+        <v>272</v>
+      </c>
+      <c r="D164" t="s">
+        <v>273</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G164" s="10">
         <v>8</v>
       </c>
-      <c r="G164" s="6">
+      <c r="H164" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>45607</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C165" t="s">
-        <v>202</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E165" s="12"/>
-      <c r="F165" s="10">
+        <v>197</v>
+      </c>
+      <c r="D165" t="s">
+        <v>198</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F165" s="12"/>
+      <c r="G165" s="10">
         <v>9</v>
       </c>
-      <c r="G165" s="6">
+      <c r="H165" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>45584</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C166" s="4"/>
       <c r="D166" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E166" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F166" s="10">
+        <v>8</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G166" s="10">
         <v>4</v>
       </c>
-      <c r="G166" s="6">
+      <c r="H166" s="6">
         <v>3</v>
       </c>
-      <c r="H166" s="8">
+      <c r="I166" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L166" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>45612</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="12"/>
-      <c r="F167" s="10">
+        <v>351</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" s="12"/>
+      <c r="G167" s="10">
         <v>3</v>
       </c>
-      <c r="G167" s="6">
+      <c r="H167" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L167" s="12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>45612</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E168" s="12"/>
-      <c r="F168" s="10">
+        <v>357</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" s="12"/>
+      <c r="G168" s="10">
         <v>1</v>
       </c>
-      <c r="G168" s="6">
+      <c r="H168" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L168" s="12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>45612</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E169" s="12"/>
-      <c r="F169" s="10">
+        <v>355</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" s="12"/>
+      <c r="G169" s="10">
         <v>3</v>
       </c>
-      <c r="G169" s="6">
+      <c r="H169" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L169" s="12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>45612</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E170" s="12"/>
-      <c r="F170" s="10">
+        <v>353</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170" s="12"/>
+      <c r="G170" s="10">
         <v>1</v>
       </c>
-      <c r="G170" s="6">
+      <c r="H170" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>45609</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E171" s="12"/>
-      <c r="F171" s="10">
+        <v>269</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" s="12"/>
+      <c r="G171" s="10">
         <v>9</v>
       </c>
-      <c r="G171" s="6">
+      <c r="H171" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>45612</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E172" s="12"/>
-      <c r="F172" s="10">
+        <v>349</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" s="12"/>
+      <c r="G172" s="10">
         <v>1</v>
       </c>
-      <c r="G172" s="6">
+      <c r="H172" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L172" s="12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>45609</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E173" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F173" s="10">
+        <v>8</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F173" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G173" s="10">
         <v>13</v>
       </c>
-      <c r="H173" s="8">
+      <c r="I173" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>45607</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C174" t="s">
-        <v>196</v>
-      </c>
-      <c r="E174" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F174" s="10">
+        <v>191</v>
+      </c>
+      <c r="D174" t="s">
+        <v>192</v>
+      </c>
+      <c r="F174" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G174" s="10">
         <v>3</v>
       </c>
-      <c r="G174" s="6">
+      <c r="H174" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L174" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>45609</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C175" t="s">
-        <v>262</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E175" s="12"/>
-      <c r="F175" s="10">
+        <v>256</v>
+      </c>
+      <c r="D175" t="s">
+        <v>257</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F175" s="12"/>
+      <c r="G175" s="10">
         <v>2</v>
       </c>
-      <c r="H175" s="8">
+      <c r="I175" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L175" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>45608</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E176" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F176" s="10">
+        <v>225</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F176" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G176" s="10">
         <v>4</v>
       </c>
-      <c r="G176" s="6">
+      <c r="H176" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>45586</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E177" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F177" s="10">
+        <v>62</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G177" s="10">
         <v>1</v>
       </c>
-      <c r="G177" s="6">
+      <c r="H177" s="6">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L177" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
-        <v>45608</v>
+        <v>45612</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E178" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F178" s="10">
-        <v>4</v>
-      </c>
-      <c r="H178" s="8">
+        <v>379</v>
+      </c>
+      <c r="D178" t="s">
+        <v>380</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G178" s="10">
         <v>1</v>
       </c>
-      <c r="I178" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L178" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>45608</v>
       </c>
       <c r="B179" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E179" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F179" s="10">
+      <c r="F179" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G179" s="10">
+        <v>4</v>
+      </c>
+      <c r="I179" s="8">
         <v>1</v>
       </c>
-      <c r="G179" s="6">
+      <c r="J179" s="10">
+        <v>0</v>
+      </c>
+      <c r="L179" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A180" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G180" s="10">
+        <v>1</v>
+      </c>
+      <c r="H180" s="6">
         <v>2.5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:I1048576" xr:uid="{B545C138-3061-481A-AA4C-5D47CBE799A5}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:J1048576" xr:uid="{B545C138-3061-481A-AA4C-5D47CBE799A5}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/src/inventory.xlsx
+++ b/src/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Erik\Persoonlijk\component-inventory\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD5E8E3-39CC-4134-B577-7A6CB4F0003B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52C1DA6-5D1B-4762-8959-6A18E359184B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22610" yWindow="-4710" windowWidth="29470" windowHeight="16930" xr2:uid="{7B4DE2BE-437B-4368-A10E-354E74019CAE}"/>
+    <workbookView xWindow="28800" yWindow="-3040" windowWidth="25890" windowHeight="17190" xr2:uid="{7B4DE2BE-437B-4368-A10E-354E74019CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Components" sheetId="1" r:id="rId1"/>
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="399">
   <si>
     <t>Description</t>
   </si>
@@ -1433,6 +1433,12 @@
   </si>
   <si>
     <t>74LS245</t>
+  </si>
+  <si>
+    <t>ULN2003A</t>
+  </si>
+  <si>
+    <t>Seven darlington arrays; driver</t>
   </si>
 </sst>
 </file>
@@ -1657,8 +1663,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A1:N180" totalsRowShown="0">
-  <autoFilter ref="A1:N180" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}" name="Table3" displayName="Table3" ref="A1:N181" totalsRowShown="0">
+  <autoFilter ref="A1:N181" xr:uid="{CA5AA056-3524-4473-A5CB-71002DEDC89B}"/>
   <tableColumns count="14">
     <tableColumn id="2" xr3:uid="{4DC12199-FF40-45B6-B436-8A468545B299}" name="ID" dataDxfId="13"/>
     <tableColumn id="1" xr3:uid="{C4F97701-1496-46B7-9BA9-0E2C3EE5AEE8}" name="Date entered" dataDxfId="12"/>
@@ -1999,11 +2005,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N180"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6910,7 +6916,7 @@
         <v>240</v>
       </c>
       <c r="B176" s="4">
-        <v>45608</v>
+        <v>45629</v>
       </c>
       <c r="C176" s="11"/>
       <c r="D176" s="2" t="s">
@@ -6923,10 +6929,10 @@
         <v>33</v>
       </c>
       <c r="G176" s="9">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H176" s="5">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="9"/>
@@ -7036,18 +7042,48 @@
       <c r="F180" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G180" s="9">
-        <v>20</v>
-      </c>
-      <c r="H180" s="5"/>
+      <c r="G180" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H180" s="5">
+        <v>0.2</v>
+      </c>
       <c r="I180" s="7"/>
       <c r="L180" s="11" t="s">
         <v>392</v>
       </c>
     </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A181" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B181" s="4">
+        <v>45629</v>
+      </c>
+      <c r="C181" s="11"/>
+      <c r="D181" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G181" s="9">
+        <v>10</v>
+      </c>
+      <c r="H181" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I181" s="7"/>
+      <c r="L181" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J177:K1048576 I2:J180 L177:L178" xr:uid="{B545C138-3061-481A-AA4C-5D47CBE799A5}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J177:K1048576 I2:J181 L177:L178" xr:uid="{B545C138-3061-481A-AA4C-5D47CBE799A5}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
